--- a/09Feb_15Feb.xlsx
+++ b/09Feb_15Feb.xlsx
@@ -679,7 +679,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="121">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -963,6 +963,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="40" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -2363,20 +2369,76 @@
           <t>Sprints</t>
         </is>
       </c>
-      <c r="C22" s="97" t="n"/>
-      <c r="D22" s="98" t="n"/>
-      <c r="E22" s="97" t="n"/>
-      <c r="F22" s="98" t="n"/>
-      <c r="G22" s="97" t="n"/>
-      <c r="H22" s="98" t="n"/>
-      <c r="I22" s="97" t="n"/>
-      <c r="J22" s="98" t="n"/>
-      <c r="K22" s="97" t="n"/>
-      <c r="L22" s="98" t="n"/>
-      <c r="M22" s="97" t="n"/>
-      <c r="N22" s="98" t="n"/>
-      <c r="O22" s="97" t="n"/>
-      <c r="P22" s="98" t="n"/>
+      <c r="C22" s="95" t="inlineStr">
+        <is>
+          <t>TRAINING CAMP</t>
+        </is>
+      </c>
+      <c r="D22" s="96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E22" s="95" t="inlineStr">
+        <is>
+          <t>TRAINING CAMP</t>
+        </is>
+      </c>
+      <c r="F22" s="96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G22" s="95" t="inlineStr">
+        <is>
+          <t>TRAINING CAMP</t>
+        </is>
+      </c>
+      <c r="H22" s="96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I22" s="95" t="inlineStr">
+        <is>
+          <t>TRAINING CAMP</t>
+        </is>
+      </c>
+      <c r="J22" s="96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K22" s="95" t="inlineStr">
+        <is>
+          <t>TRAINING CAMP</t>
+        </is>
+      </c>
+      <c r="L22" s="96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="M22" s="95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="N22" s="96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="O22" s="95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="P22" s="96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
       <c r="Q22" s="3" t="n"/>
     </row>
     <row r="23" ht="32.25" customHeight="1">
@@ -2409,20 +2471,84 @@
           <t>Sprints</t>
         </is>
       </c>
-      <c r="C24" s="28" t="n"/>
-      <c r="D24" s="21" t="n"/>
-      <c r="E24" s="28" t="n"/>
-      <c r="F24" s="21" t="n"/>
-      <c r="G24" s="28" t="n"/>
-      <c r="H24" s="21" t="n"/>
-      <c r="I24" s="28" t="n"/>
-      <c r="J24" s="21" t="n"/>
-      <c r="K24" s="28" t="n"/>
-      <c r="L24" s="21" t="n"/>
-      <c r="M24" s="28" t="n"/>
-      <c r="N24" s="21" t="n"/>
-      <c r="O24" s="28" t="n"/>
-      <c r="P24" s="21" t="n"/>
+      <c r="C24" s="93" t="inlineStr">
+        <is>
+          <t>Indoor Track
+	10:30-12:00</t>
+        </is>
+      </c>
+      <c r="D24" s="94" t="inlineStr">
+        <is>
+          <t>Outdoor Track
+	16:00-18:00</t>
+        </is>
+      </c>
+      <c r="E24" s="93" t="inlineStr">
+        <is>
+          <t>Gym B
+	10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F24" s="94" t="inlineStr">
+        <is>
+          <t>Blue Ice
+	16:00-18:00</t>
+        </is>
+      </c>
+      <c r="G24" s="93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H24" s="94" t="inlineStr">
+        <is>
+          <t>Indoor Track
+	16:00-18:00</t>
+        </is>
+      </c>
+      <c r="I24" s="93" t="inlineStr">
+        <is>
+          <t>Indoor Track
+	10:30-12:00</t>
+        </is>
+      </c>
+      <c r="J24" s="94" t="inlineStr">
+        <is>
+          <t>Outdoor Track
+	16:00-18:00</t>
+        </is>
+      </c>
+      <c r="K24" s="93" t="inlineStr">
+        <is>
+          <t>Gym B
+	10:30-12:00</t>
+        </is>
+      </c>
+      <c r="L24" s="94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="M24" s="93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="N24" s="94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="O24" s="93" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="P24" s="94" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
       <c r="Q24" s="3" t="n"/>
     </row>
     <row r="25" ht="32.25" customHeight="1">
@@ -2455,20 +2581,84 @@
           <t>Throws</t>
         </is>
       </c>
-      <c r="C26" s="97" t="n"/>
-      <c r="D26" s="98" t="n"/>
-      <c r="E26" s="97" t="n"/>
-      <c r="F26" s="98" t="n"/>
-      <c r="G26" s="97" t="n"/>
-      <c r="H26" s="98" t="n"/>
-      <c r="I26" s="97" t="n"/>
-      <c r="J26" s="98" t="n"/>
-      <c r="K26" s="97" t="n"/>
-      <c r="L26" s="98" t="n"/>
-      <c r="M26" s="97" t="n"/>
-      <c r="N26" s="98" t="n"/>
-      <c r="O26" s="97" t="n"/>
-      <c r="P26" s="98" t="n"/>
+      <c r="C26" s="95" t="inlineStr">
+        <is>
+          <t>Outdoor Throws
+	10:30-12:00</t>
+        </is>
+      </c>
+      <c r="D26" s="96" t="inlineStr">
+        <is>
+          <t>Gym A
+	16:00-18:00</t>
+        </is>
+      </c>
+      <c r="E26" s="95" t="inlineStr">
+        <is>
+          <t>Outdoor Throws
+	10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F26" s="96" t="inlineStr">
+        <is>
+          <t>Outdoor Throws
+	16:00-18:00</t>
+        </is>
+      </c>
+      <c r="G26" s="95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H26" s="96" t="inlineStr">
+        <is>
+          <t>Gym A
+	16:00-18:00</t>
+        </is>
+      </c>
+      <c r="I26" s="95" t="inlineStr">
+        <is>
+          <t>Outdoor Throws
+	10:30-12:00</t>
+        </is>
+      </c>
+      <c r="J26" s="96" t="inlineStr">
+        <is>
+          <t>Outdoor Throws
+	16:00-18:00</t>
+        </is>
+      </c>
+      <c r="K26" s="95" t="inlineStr">
+        <is>
+          <t>Gym A
+	10:30-12:00</t>
+        </is>
+      </c>
+      <c r="L26" s="96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="M26" s="95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="N26" s="96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="O26" s="95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="P26" s="96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
       <c r="Q26" s="3" t="n"/>
     </row>
     <row r="27" ht="32.25" customHeight="1">
@@ -2767,20 +2957,84 @@
           <t>Squash</t>
         </is>
       </c>
-      <c r="C37" s="50" t="n"/>
-      <c r="D37" s="52" t="n"/>
-      <c r="E37" s="50" t="n"/>
-      <c r="F37" s="52" t="n"/>
-      <c r="G37" s="50" t="n"/>
-      <c r="H37" s="52" t="n"/>
-      <c r="I37" s="50" t="n"/>
-      <c r="J37" s="52" t="n"/>
-      <c r="K37" s="50" t="n"/>
-      <c r="L37" s="52" t="n"/>
-      <c r="M37" s="50" t="n"/>
-      <c r="N37" s="52" t="n"/>
-      <c r="O37" s="50" t="n"/>
-      <c r="P37" s="52" t="n"/>
+      <c r="C37" s="89" t="inlineStr">
+        <is>
+          <t>Squash Courts
+	10:30-12:00</t>
+        </is>
+      </c>
+      <c r="D37" s="90" t="inlineStr">
+        <is>
+          <t>Squash Courts
+	16:00-18:00</t>
+        </is>
+      </c>
+      <c r="E37" s="89" t="inlineStr">
+        <is>
+          <t>Squash Courts
+	10:30-12:00</t>
+        </is>
+      </c>
+      <c r="F37" s="90" t="inlineStr">
+        <is>
+          <t>Squash Courts
+	16:00-18:00</t>
+        </is>
+      </c>
+      <c r="G37" s="89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H37" s="90" t="inlineStr">
+        <is>
+          <t>Squash Courts
+	15:30-17:30</t>
+        </is>
+      </c>
+      <c r="I37" s="89" t="inlineStr">
+        <is>
+          <t>Squash Courts
+	10:30-12:00</t>
+        </is>
+      </c>
+      <c r="J37" s="90" t="inlineStr">
+        <is>
+          <t>Squash Courts
+	16:00-18:00</t>
+        </is>
+      </c>
+      <c r="K37" s="89" t="inlineStr">
+        <is>
+          <t>Squash Courts
+	10:15-11:45</t>
+        </is>
+      </c>
+      <c r="L37" s="90" t="inlineStr">
+        <is>
+          <t>TRAINING CAMP</t>
+        </is>
+      </c>
+      <c r="M37" s="89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="N37" s="90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="O37" s="89" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="P37" s="90" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
       <c r="Q37" s="3" t="n"/>
     </row>
     <row r="38" ht="37.5" customHeight="1">
@@ -3059,13 +3313,13 @@
       </c>
       <c r="G43" s="93" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>Swimming Pool
+	08:30-11:00</t>
         </is>
       </c>
       <c r="H43" s="94" t="inlineStr">
         <is>
-          <t>Swimming Pool
-	15:30-18:00</t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="I43" s="93" t="inlineStr">
@@ -3145,20 +3399,82 @@
           <t>Padel</t>
         </is>
       </c>
-      <c r="C45" s="49" t="n"/>
-      <c r="D45" s="51" t="n"/>
-      <c r="E45" s="49" t="n"/>
-      <c r="F45" s="51" t="n"/>
-      <c r="G45" s="49" t="n"/>
-      <c r="H45" s="51" t="n"/>
-      <c r="I45" s="49" t="n"/>
-      <c r="J45" s="51" t="n"/>
-      <c r="K45" s="49" t="n"/>
-      <c r="L45" s="51" t="n"/>
-      <c r="M45" s="49" t="n"/>
-      <c r="N45" s="51" t="n"/>
-      <c r="O45" s="49" t="n"/>
-      <c r="P45" s="51" t="n"/>
+      <c r="C45" s="104" t="inlineStr">
+        <is>
+          <t>PadelIN
+	10:30-11:30</t>
+        </is>
+      </c>
+      <c r="D45" s="105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E45" s="104" t="inlineStr">
+        <is>
+          <t>PadelIN
+	10:30-11:30</t>
+        </is>
+      </c>
+      <c r="F45" s="105" t="inlineStr">
+        <is>
+          <t>Gym A
+	16:00-17:00</t>
+        </is>
+      </c>
+      <c r="G45" s="104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H45" s="105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I45" s="104" t="inlineStr">
+        <is>
+          <t>PadelIN
+	10:30-11:30</t>
+        </is>
+      </c>
+      <c r="J45" s="105" t="inlineStr">
+        <is>
+          <t>Gym A
+	16:00-17:00</t>
+        </is>
+      </c>
+      <c r="K45" s="104" t="inlineStr">
+        <is>
+          <t>PadelIN
+	10:30-11:30</t>
+        </is>
+      </c>
+      <c r="L45" s="105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="M45" s="104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="N45" s="105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="O45" s="104" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="P45" s="105" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
       <c r="Q45" s="3" t="n"/>
     </row>
     <row r="46" ht="34.5" customHeight="1" thickBot="1">
@@ -3168,20 +3484,20 @@
           <t>Mariano Amat</t>
         </is>
       </c>
-      <c r="C46" s="104" t="n"/>
-      <c r="D46" s="105" t="n"/>
-      <c r="E46" s="104" t="n"/>
-      <c r="F46" s="105" t="n"/>
-      <c r="G46" s="104" t="n"/>
-      <c r="H46" s="105" t="n"/>
-      <c r="I46" s="104" t="n"/>
-      <c r="J46" s="105" t="n"/>
-      <c r="K46" s="104" t="n"/>
-      <c r="L46" s="105" t="n"/>
-      <c r="M46" s="104" t="n"/>
-      <c r="N46" s="105" t="n"/>
-      <c r="O46" s="104" t="n"/>
-      <c r="P46" s="105" t="n"/>
+      <c r="C46" s="106" t="n"/>
+      <c r="D46" s="107" t="n"/>
+      <c r="E46" s="106" t="n"/>
+      <c r="F46" s="107" t="n"/>
+      <c r="G46" s="106" t="n"/>
+      <c r="H46" s="107" t="n"/>
+      <c r="I46" s="106" t="n"/>
+      <c r="J46" s="107" t="n"/>
+      <c r="K46" s="106" t="n"/>
+      <c r="L46" s="107" t="n"/>
+      <c r="M46" s="106" t="n"/>
+      <c r="N46" s="107" t="n"/>
+      <c r="O46" s="106" t="n"/>
+      <c r="P46" s="107" t="n"/>
       <c r="Q46" s="3" t="n"/>
     </row>
     <row r="47" ht="16.5" customHeight="1" thickBot="1">
@@ -3192,19 +3508,19 @@
           <t>Pre Academy Programmes</t>
         </is>
       </c>
-      <c r="D47" s="106" t="n"/>
-      <c r="E47" s="106" t="n"/>
-      <c r="F47" s="106" t="n"/>
-      <c r="G47" s="106" t="n"/>
-      <c r="H47" s="106" t="n"/>
-      <c r="I47" s="106" t="n"/>
-      <c r="J47" s="106" t="n"/>
-      <c r="K47" s="106" t="n"/>
-      <c r="L47" s="106" t="n"/>
-      <c r="M47" s="106" t="n"/>
-      <c r="N47" s="106" t="n"/>
-      <c r="O47" s="106" t="n"/>
-      <c r="P47" s="107" t="n"/>
+      <c r="D47" s="108" t="n"/>
+      <c r="E47" s="108" t="n"/>
+      <c r="F47" s="108" t="n"/>
+      <c r="G47" s="108" t="n"/>
+      <c r="H47" s="108" t="n"/>
+      <c r="I47" s="108" t="n"/>
+      <c r="J47" s="108" t="n"/>
+      <c r="K47" s="108" t="n"/>
+      <c r="L47" s="108" t="n"/>
+      <c r="M47" s="108" t="n"/>
+      <c r="N47" s="108" t="n"/>
+      <c r="O47" s="108" t="n"/>
+      <c r="P47" s="109" t="n"/>
       <c r="Q47" s="3" t="n"/>
     </row>
     <row r="48" ht="31.5" customHeight="1">
@@ -3214,74 +3530,74 @@
           <t>Pre-Academy Padel Explorers</t>
         </is>
       </c>
-      <c r="C48" s="108" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D48" s="109" t="inlineStr">
+      <c r="C48" s="110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D48" s="111" t="inlineStr">
         <is>
           <t>PadelIN
 	16:00-17:30</t>
         </is>
       </c>
-      <c r="E48" s="108" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F48" s="109" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="G48" s="108" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="H48" s="109" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I48" s="108" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="J48" s="109" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="K48" s="108" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="L48" s="109" t="inlineStr">
+      <c r="E48" s="110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F48" s="111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G48" s="110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H48" s="111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I48" s="110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J48" s="111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K48" s="110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L48" s="111" t="inlineStr">
         <is>
           <t>PadelIN
 	16:00-17:30</t>
         </is>
       </c>
-      <c r="M48" s="108" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="N48" s="109" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="O48" s="108" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="P48" s="109" t="inlineStr">
+      <c r="M48" s="110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="N48" s="111" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="O48" s="110" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="P48" s="111" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3377,74 +3693,74 @@
           <t>Pre-Academy Padel Starters</t>
         </is>
       </c>
-      <c r="C50" s="110" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D50" s="111" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E50" s="110" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F50" s="111" t="inlineStr">
+      <c r="C50" s="112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D50" s="113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E50" s="112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F50" s="113" t="inlineStr">
         <is>
           <t>PadelIN
 	16:00-17:30</t>
         </is>
       </c>
-      <c r="G50" s="110" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="H50" s="111" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I50" s="110" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="J50" s="111" t="inlineStr">
+      <c r="G50" s="112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H50" s="113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I50" s="112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J50" s="113" t="inlineStr">
         <is>
           <t>PadelIN
 	16:00-17:30</t>
         </is>
       </c>
-      <c r="K50" s="110" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="L50" s="111" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="M50" s="110" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="N50" s="111" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="O50" s="110" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="P50" s="111" t="inlineStr">
+      <c r="K50" s="112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L50" s="113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="M50" s="112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="N50" s="113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="O50" s="112" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="P50" s="113" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3628,20 +3944,20 @@
     <row r="56" ht="26.5" customHeight="1" thickBot="1">
       <c r="A56" s="3" t="n"/>
       <c r="B56" s="20" t="n"/>
-      <c r="C56" s="104" t="n"/>
-      <c r="D56" s="105" t="n"/>
-      <c r="E56" s="104" t="n"/>
-      <c r="F56" s="105" t="n"/>
-      <c r="G56" s="104" t="n"/>
-      <c r="H56" s="105" t="n"/>
-      <c r="I56" s="104" t="n"/>
-      <c r="J56" s="105" t="n"/>
-      <c r="K56" s="104" t="n"/>
-      <c r="L56" s="105" t="n"/>
-      <c r="M56" s="104" t="n"/>
-      <c r="N56" s="105" t="n"/>
-      <c r="O56" s="104" t="n"/>
-      <c r="P56" s="105" t="n"/>
+      <c r="C56" s="106" t="n"/>
+      <c r="D56" s="107" t="n"/>
+      <c r="E56" s="106" t="n"/>
+      <c r="F56" s="107" t="n"/>
+      <c r="G56" s="106" t="n"/>
+      <c r="H56" s="107" t="n"/>
+      <c r="I56" s="106" t="n"/>
+      <c r="J56" s="107" t="n"/>
+      <c r="K56" s="106" t="n"/>
+      <c r="L56" s="107" t="n"/>
+      <c r="M56" s="106" t="n"/>
+      <c r="N56" s="107" t="n"/>
+      <c r="O56" s="106" t="n"/>
+      <c r="P56" s="107" t="n"/>
       <c r="Q56" s="3" t="n"/>
     </row>
     <row r="57" ht="17.5" customHeight="1" thickBot="1">
@@ -3656,19 +3972,19 @@
           <t>Girl Programme</t>
         </is>
       </c>
-      <c r="D57" s="106" t="n"/>
-      <c r="E57" s="106" t="n"/>
-      <c r="F57" s="106" t="n"/>
-      <c r="G57" s="106" t="n"/>
-      <c r="H57" s="106" t="n"/>
-      <c r="I57" s="106" t="n"/>
-      <c r="J57" s="106" t="n"/>
-      <c r="K57" s="106" t="n"/>
-      <c r="L57" s="106" t="n"/>
-      <c r="M57" s="106" t="n"/>
-      <c r="N57" s="106" t="n"/>
-      <c r="O57" s="106" t="n"/>
-      <c r="P57" s="112" t="n"/>
+      <c r="D57" s="108" t="n"/>
+      <c r="E57" s="108" t="n"/>
+      <c r="F57" s="108" t="n"/>
+      <c r="G57" s="108" t="n"/>
+      <c r="H57" s="108" t="n"/>
+      <c r="I57" s="108" t="n"/>
+      <c r="J57" s="108" t="n"/>
+      <c r="K57" s="108" t="n"/>
+      <c r="L57" s="108" t="n"/>
+      <c r="M57" s="108" t="n"/>
+      <c r="N57" s="108" t="n"/>
+      <c r="O57" s="108" t="n"/>
+      <c r="P57" s="114" t="n"/>
       <c r="Q57" s="3" t="n"/>
     </row>
     <row r="58" ht="54.5" customHeight="1">
@@ -3678,74 +3994,74 @@
           <t>Kids</t>
         </is>
       </c>
-      <c r="C58" s="113" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D58" s="114" t="inlineStr">
+      <c r="C58" s="115" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D58" s="116" t="inlineStr">
         <is>
           <t>MPH 2
 	15:00-16:15</t>
         </is>
       </c>
-      <c r="E58" s="115" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F58" s="114" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="G58" s="115" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="H58" s="114" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I58" s="115" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="J58" s="114" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="K58" s="115" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="L58" s="114" t="inlineStr">
+      <c r="E58" s="117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F58" s="116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G58" s="117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H58" s="116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I58" s="117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J58" s="116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K58" s="117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L58" s="116" t="inlineStr">
         <is>
           <t>Gymnastics Hall
 	15:00-16:15</t>
         </is>
       </c>
-      <c r="M58" s="115" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="N58" s="114" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="O58" s="115" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="P58" s="114" t="inlineStr">
+      <c r="M58" s="117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="N58" s="116" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="O58" s="117" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="P58" s="116" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3759,12 +4075,12 @@
           <t>Mini Cadet U14</t>
         </is>
       </c>
-      <c r="C59" s="116" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D59" s="117" t="inlineStr">
+      <c r="C59" s="118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D59" s="119" t="inlineStr">
         <is>
           <t>Outdoor Throws
 15:00-16:30
@@ -3772,63 +4088,63 @@
 	15:00-16:30</t>
         </is>
       </c>
-      <c r="E59" s="116" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F59" s="117" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="G59" s="116" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="H59" s="117" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I59" s="116" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="J59" s="117" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="K59" s="116" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="L59" s="117" t="inlineStr">
+      <c r="E59" s="118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F59" s="119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G59" s="118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H59" s="119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I59" s="118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J59" s="119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K59" s="118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L59" s="119" t="inlineStr">
         <is>
           <t>Indoor Track
 	15:00-16:30</t>
         </is>
       </c>
-      <c r="M59" s="116" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="N59" s="117" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="O59" s="116" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="P59" s="117" t="inlineStr">
+      <c r="M59" s="118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="N59" s="119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="O59" s="118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="P59" s="119" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3842,12 +4158,12 @@
           <t>Cadet U16</t>
         </is>
       </c>
-      <c r="C60" s="116" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D60" s="117" t="inlineStr">
+      <c r="C60" s="118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D60" s="119" t="inlineStr">
         <is>
           <t>Outdoor Throws
 15:00-16:30
@@ -3855,64 +4171,64 @@
 	15:00-16:30</t>
         </is>
       </c>
-      <c r="E60" s="116" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F60" s="117" t="inlineStr">
+      <c r="E60" s="118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F60" s="119" t="inlineStr">
         <is>
           <t>Gym A
 	15:00-16:30</t>
         </is>
       </c>
-      <c r="G60" s="116" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="H60" s="117" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I60" s="116" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="J60" s="117" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="K60" s="116" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="L60" s="117" t="inlineStr">
+      <c r="G60" s="118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H60" s="119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I60" s="118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J60" s="119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K60" s="118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L60" s="119" t="inlineStr">
         <is>
           <t>Gym A
 	15:00-16:30</t>
         </is>
       </c>
-      <c r="M60" s="116" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="N60" s="117" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="O60" s="116" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="P60" s="117" t="inlineStr">
+      <c r="M60" s="118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="N60" s="119" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="O60" s="118" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="P60" s="119" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -3926,75 +4242,75 @@
           <t>Youth U18</t>
         </is>
       </c>
-      <c r="C61" s="118" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D61" s="119" t="inlineStr">
+      <c r="C61" s="120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D61" s="121" t="inlineStr">
         <is>
           <t>Indoor Track
 	15:00-17:00</t>
         </is>
       </c>
-      <c r="E61" s="118" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F61" s="119" t="inlineStr">
+      <c r="E61" s="120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F61" s="121" t="inlineStr">
         <is>
           <t>Gym A
 	15:00-16:30</t>
         </is>
       </c>
-      <c r="G61" s="118" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="H61" s="119" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I61" s="118" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="J61" s="119" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="K61" s="118" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="L61" s="119" t="inlineStr">
+      <c r="G61" s="120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H61" s="121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I61" s="120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J61" s="121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K61" s="120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="L61" s="121" t="inlineStr">
         <is>
           <t>Gym A
 	15:00-16:30</t>
         </is>
       </c>
-      <c r="M61" s="118" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="N61" s="119" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="O61" s="118" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="P61" s="119" t="inlineStr">
+      <c r="M61" s="120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="N61" s="121" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="O61" s="120" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="P61" s="121" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -4058,7 +4374,7 @@
     </row>
     <row r="65" ht="26.25" customHeight="1">
       <c r="A65" s="3" t="n"/>
-      <c r="B65" s="120" t="inlineStr">
+      <c r="B65" s="122" t="inlineStr">
         <is>
           <t>Aspire Academy Sports Department
 Weekly Training Plan - QAF GROUPS</t>
@@ -4456,20 +4772,82 @@
           <t>Jumps</t>
         </is>
       </c>
-      <c r="C73" s="97" t="n"/>
-      <c r="D73" s="98" t="n"/>
-      <c r="E73" s="97" t="n"/>
-      <c r="F73" s="98" t="n"/>
-      <c r="G73" s="97" t="n"/>
-      <c r="H73" s="98" t="n"/>
-      <c r="I73" s="97" t="n"/>
-      <c r="J73" s="98" t="n"/>
-      <c r="K73" s="97" t="n"/>
-      <c r="L73" s="98" t="n"/>
-      <c r="M73" s="97" t="n"/>
-      <c r="N73" s="98" t="n"/>
-      <c r="O73" s="97" t="n"/>
-      <c r="P73" s="98" t="n"/>
+      <c r="C73" s="95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D73" s="96" t="inlineStr">
+        <is>
+          <t>Outdoor Track
+	16:00-18:00</t>
+        </is>
+      </c>
+      <c r="E73" s="95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F73" s="96" t="inlineStr">
+        <is>
+          <t>Gym A
+	16:00-18:00</t>
+        </is>
+      </c>
+      <c r="G73" s="95" t="inlineStr">
+        <is>
+          <t>Outdoor Track
+	09:00-11:00</t>
+        </is>
+      </c>
+      <c r="H73" s="96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="I73" s="95" t="inlineStr">
+        <is>
+          <t>Indoor Track
+	09:00-11:00</t>
+        </is>
+      </c>
+      <c r="J73" s="96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="K73" s="95" t="inlineStr">
+        <is>
+          <t>Gym A
+	09:00-11:00</t>
+        </is>
+      </c>
+      <c r="L73" s="96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="M73" s="95" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="N73" s="96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="O73" s="95" t="inlineStr">
+        <is>
+          <t>Indoor Track
+	09:00-11:00</t>
+        </is>
+      </c>
+      <c r="P73" s="96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
       <c r="Q73" s="3" t="n"/>
     </row>
     <row r="74" ht="34.5" customHeight="1">

--- a/09Feb_15Feb.xlsx
+++ b/09Feb_15Feb.xlsx
@@ -679,7 +679,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -929,26 +929,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -964,51 +946,18 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="40" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1697,82 +1646,20 @@
           <t>Athletics D-1</t>
         </is>
       </c>
-      <c r="C6" s="89" t="inlineStr">
-        <is>
-          <t>Gym C
-	10:00-12:00</t>
-        </is>
-      </c>
-      <c r="D6" s="90" t="inlineStr">
-        <is>
-          <t>Indoor Track
-	16:00-18:00</t>
-        </is>
-      </c>
-      <c r="E6" s="89" t="inlineStr">
-        <is>
-          <t>Swimming Pool
-	10:00-12:00</t>
-        </is>
-      </c>
-      <c r="F6" s="90" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="G6" s="89" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="H6" s="90" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I6" s="89" t="inlineStr">
-        <is>
-          <t>Indoor Track
-	10:00-12:00</t>
-        </is>
-      </c>
-      <c r="J6" s="90" t="inlineStr">
-        <is>
-          <t>MPH 2
-	16:00-18:00</t>
-        </is>
-      </c>
-      <c r="K6" s="89" t="inlineStr">
-        <is>
-          <t>Gymnastics Hall
-	10:00-12:00</t>
-        </is>
-      </c>
-      <c r="L6" s="90" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="M6" s="89" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="N6" s="90" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="O6" s="89" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="P6" s="90" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+      <c r="C6" s="50" t="n"/>
+      <c r="D6" s="52" t="n"/>
+      <c r="E6" s="50" t="n"/>
+      <c r="F6" s="52" t="n"/>
+      <c r="G6" s="50" t="n"/>
+      <c r="H6" s="52" t="n"/>
+      <c r="I6" s="50" t="n"/>
+      <c r="J6" s="52" t="n"/>
+      <c r="K6" s="50" t="n"/>
+      <c r="L6" s="52" t="n"/>
+      <c r="M6" s="50" t="n"/>
+      <c r="N6" s="52" t="n"/>
+      <c r="O6" s="50" t="n"/>
+      <c r="P6" s="52" t="n"/>
       <c r="Q6" s="3" t="n"/>
     </row>
     <row r="7" ht="32.25" customHeight="1">
@@ -1782,20 +1669,20 @@
           <t>Abd'raoof Alamir</t>
         </is>
       </c>
-      <c r="C7" s="91" t="n"/>
-      <c r="D7" s="92" t="n"/>
-      <c r="E7" s="91" t="n"/>
-      <c r="F7" s="92" t="n"/>
-      <c r="G7" s="91" t="n"/>
-      <c r="H7" s="92" t="n"/>
-      <c r="I7" s="91" t="n"/>
-      <c r="J7" s="92" t="n"/>
-      <c r="K7" s="91" t="n"/>
-      <c r="L7" s="92" t="n"/>
-      <c r="M7" s="91" t="n"/>
-      <c r="N7" s="92" t="n"/>
-      <c r="O7" s="91" t="n"/>
-      <c r="P7" s="92" t="n"/>
+      <c r="C7" s="89" t="n"/>
+      <c r="D7" s="90" t="n"/>
+      <c r="E7" s="89" t="n"/>
+      <c r="F7" s="90" t="n"/>
+      <c r="G7" s="89" t="n"/>
+      <c r="H7" s="90" t="n"/>
+      <c r="I7" s="89" t="n"/>
+      <c r="J7" s="90" t="n"/>
+      <c r="K7" s="89" t="n"/>
+      <c r="L7" s="90" t="n"/>
+      <c r="M7" s="89" t="n"/>
+      <c r="N7" s="90" t="n"/>
+      <c r="O7" s="89" t="n"/>
+      <c r="P7" s="90" t="n"/>
       <c r="Q7" s="3" t="n"/>
     </row>
     <row r="8" ht="32.25" customHeight="1">
@@ -1805,82 +1692,20 @@
           <t xml:space="preserve">Athletics D-2 </t>
         </is>
       </c>
-      <c r="C8" s="93" t="inlineStr">
-        <is>
-          <t>Indoor Track
-	10:00-12:00</t>
-        </is>
-      </c>
-      <c r="D8" s="94" t="inlineStr">
-        <is>
-          <t>Gymnastics Hall
-	16:00-18:00</t>
-        </is>
-      </c>
-      <c r="E8" s="93" t="inlineStr">
-        <is>
-          <t>Gym B
-	10:00-12:00</t>
-        </is>
-      </c>
-      <c r="F8" s="94" t="inlineStr">
-        <is>
-          <t>MPH 2
-	16:00-18:00</t>
-        </is>
-      </c>
-      <c r="G8" s="93" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="H8" s="94" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I8" s="93" t="inlineStr">
-        <is>
-          <t>Gym B
-	10:00-12:00</t>
-        </is>
-      </c>
-      <c r="J8" s="94" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="K8" s="93" t="inlineStr">
-        <is>
-          <t>Indoor Track
-	10:00-12:00</t>
-        </is>
-      </c>
-      <c r="L8" s="94" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="M8" s="93" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="N8" s="94" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="O8" s="93" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="P8" s="94" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+      <c r="C8" s="28" t="n"/>
+      <c r="D8" s="21" t="n"/>
+      <c r="E8" s="28" t="n"/>
+      <c r="F8" s="21" t="n"/>
+      <c r="G8" s="28" t="n"/>
+      <c r="H8" s="21" t="n"/>
+      <c r="I8" s="28" t="n"/>
+      <c r="J8" s="21" t="n"/>
+      <c r="K8" s="28" t="n"/>
+      <c r="L8" s="21" t="n"/>
+      <c r="M8" s="28" t="n"/>
+      <c r="N8" s="21" t="n"/>
+      <c r="O8" s="28" t="n"/>
+      <c r="P8" s="21" t="n"/>
       <c r="Q8" s="3" t="n"/>
     </row>
     <row r="9" ht="32.25" customHeight="1">
@@ -1890,20 +1715,20 @@
           <t>Adel Mouelhi</t>
         </is>
       </c>
-      <c r="C9" s="91" t="n"/>
-      <c r="D9" s="92" t="n"/>
-      <c r="E9" s="91" t="n"/>
-      <c r="F9" s="92" t="n"/>
-      <c r="G9" s="91" t="n"/>
-      <c r="H9" s="92" t="n"/>
-      <c r="I9" s="91" t="n"/>
-      <c r="J9" s="92" t="n"/>
-      <c r="K9" s="91" t="n"/>
-      <c r="L9" s="92" t="n"/>
-      <c r="M9" s="91" t="n"/>
-      <c r="N9" s="92" t="n"/>
-      <c r="O9" s="91" t="n"/>
-      <c r="P9" s="92" t="n"/>
+      <c r="C9" s="89" t="n"/>
+      <c r="D9" s="90" t="n"/>
+      <c r="E9" s="89" t="n"/>
+      <c r="F9" s="90" t="n"/>
+      <c r="G9" s="89" t="n"/>
+      <c r="H9" s="90" t="n"/>
+      <c r="I9" s="89" t="n"/>
+      <c r="J9" s="90" t="n"/>
+      <c r="K9" s="89" t="n"/>
+      <c r="L9" s="90" t="n"/>
+      <c r="M9" s="89" t="n"/>
+      <c r="N9" s="90" t="n"/>
+      <c r="O9" s="89" t="n"/>
+      <c r="P9" s="90" t="n"/>
       <c r="Q9" s="3" t="n"/>
     </row>
     <row r="10" ht="32.25" customHeight="1">
@@ -1913,83 +1738,20 @@
           <t>Athletics D-3</t>
         </is>
       </c>
-      <c r="C10" s="95" t="inlineStr">
-        <is>
-          <t>Gymnastics Hall
-	10:30-12:00</t>
-        </is>
-      </c>
-      <c r="D10" s="96" t="inlineStr">
-        <is>
-          <t>Indoor Track
-	16:00-18:00</t>
-        </is>
-      </c>
-      <c r="E10" s="95" t="inlineStr">
-        <is>
-          <t>Indoor Track
-	10:30-12:00</t>
-        </is>
-      </c>
-      <c r="F10" s="96" t="inlineStr">
-        <is>
-          <t>Gym B
-	16:00-18:00</t>
-        </is>
-      </c>
-      <c r="G10" s="95" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="H10" s="96" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I10" s="95" t="inlineStr">
-        <is>
-          <t>MPH 2
-	10:30-12:00</t>
-        </is>
-      </c>
-      <c r="J10" s="96" t="inlineStr">
-        <is>
-          <t>Gym B
-	16:00-18:00</t>
-        </is>
-      </c>
-      <c r="K10" s="95" t="inlineStr">
-        <is>
-          <t>Indoor Track
-	10:30-12:00</t>
-        </is>
-      </c>
-      <c r="L10" s="96" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="M10" s="95" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="N10" s="96" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="O10" s="95" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="P10" s="96" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+      <c r="C10" s="91" t="n"/>
+      <c r="D10" s="92" t="n"/>
+      <c r="E10" s="91" t="n"/>
+      <c r="F10" s="92" t="n"/>
+      <c r="G10" s="91" t="n"/>
+      <c r="H10" s="92" t="n"/>
+      <c r="I10" s="91" t="n"/>
+      <c r="J10" s="92" t="n"/>
+      <c r="K10" s="91" t="n"/>
+      <c r="L10" s="92" t="n"/>
+      <c r="M10" s="91" t="n"/>
+      <c r="N10" s="92" t="n"/>
+      <c r="O10" s="91" t="n"/>
+      <c r="P10" s="92" t="n"/>
       <c r="Q10" s="3" t="n"/>
     </row>
     <row r="11" ht="32.25" customHeight="1">
@@ -1999,20 +1761,20 @@
           <t>Peter Skoumal</t>
         </is>
       </c>
-      <c r="C11" s="91" t="n"/>
-      <c r="D11" s="92" t="n"/>
-      <c r="E11" s="91" t="n"/>
-      <c r="F11" s="92" t="n"/>
-      <c r="G11" s="91" t="n"/>
-      <c r="H11" s="92" t="n"/>
-      <c r="I11" s="91" t="n"/>
-      <c r="J11" s="92" t="n"/>
-      <c r="K11" s="91" t="n"/>
-      <c r="L11" s="92" t="n"/>
-      <c r="M11" s="91" t="n"/>
-      <c r="N11" s="92" t="n"/>
-      <c r="O11" s="91" t="n"/>
-      <c r="P11" s="92" t="n"/>
+      <c r="C11" s="89" t="n"/>
+      <c r="D11" s="90" t="n"/>
+      <c r="E11" s="89" t="n"/>
+      <c r="F11" s="90" t="n"/>
+      <c r="G11" s="89" t="n"/>
+      <c r="H11" s="90" t="n"/>
+      <c r="I11" s="89" t="n"/>
+      <c r="J11" s="90" t="n"/>
+      <c r="K11" s="89" t="n"/>
+      <c r="L11" s="90" t="n"/>
+      <c r="M11" s="89" t="n"/>
+      <c r="N11" s="90" t="n"/>
+      <c r="O11" s="89" t="n"/>
+      <c r="P11" s="90" t="n"/>
       <c r="Q11" s="3" t="n"/>
     </row>
     <row r="12" ht="32.25" customHeight="1">
@@ -2045,20 +1807,20 @@
           <t>Ahmad Jaad</t>
         </is>
       </c>
-      <c r="C13" s="91" t="n"/>
-      <c r="D13" s="92" t="n"/>
-      <c r="E13" s="91" t="n"/>
-      <c r="F13" s="92" t="n"/>
-      <c r="G13" s="91" t="n"/>
-      <c r="H13" s="92" t="n"/>
-      <c r="I13" s="91" t="n"/>
-      <c r="J13" s="92" t="n"/>
-      <c r="K13" s="91" t="n"/>
-      <c r="L13" s="92" t="n"/>
-      <c r="M13" s="91" t="n"/>
-      <c r="N13" s="92" t="n"/>
-      <c r="O13" s="91" t="n"/>
-      <c r="P13" s="92" t="n"/>
+      <c r="C13" s="89" t="n"/>
+      <c r="D13" s="90" t="n"/>
+      <c r="E13" s="89" t="n"/>
+      <c r="F13" s="90" t="n"/>
+      <c r="G13" s="89" t="n"/>
+      <c r="H13" s="90" t="n"/>
+      <c r="I13" s="89" t="n"/>
+      <c r="J13" s="90" t="n"/>
+      <c r="K13" s="89" t="n"/>
+      <c r="L13" s="90" t="n"/>
+      <c r="M13" s="89" t="n"/>
+      <c r="N13" s="90" t="n"/>
+      <c r="O13" s="89" t="n"/>
+      <c r="P13" s="90" t="n"/>
       <c r="Q13" s="3" t="n"/>
     </row>
     <row r="14" ht="32.25" customHeight="1">
@@ -2068,76 +1830,20 @@
           <t>Pole Vault</t>
         </is>
       </c>
-      <c r="C14" s="95" t="inlineStr">
-        <is>
-          <t>TRAINING CAMP</t>
-        </is>
-      </c>
-      <c r="D14" s="96" t="inlineStr">
-        <is>
-          <t>TRAINING CAMP</t>
-        </is>
-      </c>
-      <c r="E14" s="95" t="inlineStr">
-        <is>
-          <t>TRAINING CAMP</t>
-        </is>
-      </c>
-      <c r="F14" s="96" t="inlineStr">
-        <is>
-          <t>TRAINING CAMP</t>
-        </is>
-      </c>
-      <c r="G14" s="95" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="H14" s="96" t="inlineStr">
-        <is>
-          <t>TRAINING CAMP</t>
-        </is>
-      </c>
-      <c r="I14" s="95" t="inlineStr">
-        <is>
-          <t>TRAINING CAMP</t>
-        </is>
-      </c>
-      <c r="J14" s="96" t="inlineStr">
-        <is>
-          <t>TRAINING CAMP</t>
-        </is>
-      </c>
-      <c r="K14" s="95" t="inlineStr">
-        <is>
-          <t>TRAINING CAMP</t>
-        </is>
-      </c>
-      <c r="L14" s="96" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="M14" s="95" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="N14" s="96" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="O14" s="95" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="P14" s="96" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+      <c r="C14" s="91" t="n"/>
+      <c r="D14" s="92" t="n"/>
+      <c r="E14" s="91" t="n"/>
+      <c r="F14" s="92" t="n"/>
+      <c r="G14" s="91" t="n"/>
+      <c r="H14" s="92" t="n"/>
+      <c r="I14" s="91" t="n"/>
+      <c r="J14" s="92" t="n"/>
+      <c r="K14" s="91" t="n"/>
+      <c r="L14" s="92" t="n"/>
+      <c r="M14" s="91" t="n"/>
+      <c r="N14" s="92" t="n"/>
+      <c r="O14" s="91" t="n"/>
+      <c r="P14" s="92" t="n"/>
       <c r="Q14" s="3" t="n"/>
     </row>
     <row r="15" ht="32.25" customHeight="1">
@@ -2147,20 +1853,20 @@
           <t>Jaco Van Vuuren</t>
         </is>
       </c>
-      <c r="C15" s="91" t="n"/>
-      <c r="D15" s="92" t="n"/>
-      <c r="E15" s="91" t="n"/>
-      <c r="F15" s="92" t="n"/>
-      <c r="G15" s="91" t="n"/>
-      <c r="H15" s="92" t="n"/>
-      <c r="I15" s="91" t="n"/>
-      <c r="J15" s="92" t="n"/>
-      <c r="K15" s="91" t="n"/>
-      <c r="L15" s="92" t="n"/>
-      <c r="M15" s="91" t="n"/>
-      <c r="N15" s="92" t="n"/>
-      <c r="O15" s="91" t="n"/>
-      <c r="P15" s="92" t="n"/>
+      <c r="C15" s="89" t="n"/>
+      <c r="D15" s="90" t="n"/>
+      <c r="E15" s="89" t="n"/>
+      <c r="F15" s="90" t="n"/>
+      <c r="G15" s="89" t="n"/>
+      <c r="H15" s="90" t="n"/>
+      <c r="I15" s="89" t="n"/>
+      <c r="J15" s="90" t="n"/>
+      <c r="K15" s="89" t="n"/>
+      <c r="L15" s="90" t="n"/>
+      <c r="M15" s="89" t="n"/>
+      <c r="N15" s="90" t="n"/>
+      <c r="O15" s="89" t="n"/>
+      <c r="P15" s="90" t="n"/>
       <c r="Q15" s="3" t="n"/>
     </row>
     <row r="16" ht="32.25" customHeight="1">
@@ -2170,81 +1876,20 @@
           <t>Jumps</t>
         </is>
       </c>
-      <c r="C16" s="93" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D16" s="94" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E16" s="93" t="inlineStr">
-        <is>
-          <t>Gymnastics Hall
-	10:00-12:00</t>
-        </is>
-      </c>
-      <c r="F16" s="94" t="inlineStr">
-        <is>
-          <t>Gym B
-	16:00-18:00</t>
-        </is>
-      </c>
-      <c r="G16" s="93" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="H16" s="94" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I16" s="93" t="inlineStr">
-        <is>
-          <t>Outdoor Track
-	10:30-12:00</t>
-        </is>
-      </c>
-      <c r="J16" s="94" t="inlineStr">
-        <is>
-          <t>Gym B
-	16:00-18:00</t>
-        </is>
-      </c>
-      <c r="K16" s="93" t="inlineStr">
-        <is>
-          <t>Outdoor Track
-	10:15-12:00</t>
-        </is>
-      </c>
-      <c r="L16" s="94" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="M16" s="93" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="N16" s="94" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="O16" s="93" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="P16" s="94" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+      <c r="C16" s="28" t="n"/>
+      <c r="D16" s="21" t="n"/>
+      <c r="E16" s="28" t="n"/>
+      <c r="F16" s="21" t="n"/>
+      <c r="G16" s="28" t="n"/>
+      <c r="H16" s="21" t="n"/>
+      <c r="I16" s="28" t="n"/>
+      <c r="J16" s="21" t="n"/>
+      <c r="K16" s="28" t="n"/>
+      <c r="L16" s="21" t="n"/>
+      <c r="M16" s="28" t="n"/>
+      <c r="N16" s="21" t="n"/>
+      <c r="O16" s="28" t="n"/>
+      <c r="P16" s="21" t="n"/>
       <c r="Q16" s="3" t="n"/>
     </row>
     <row r="17" ht="32.25" customHeight="1">
@@ -2254,20 +1899,20 @@
           <t>Martin Bercel</t>
         </is>
       </c>
-      <c r="C17" s="91" t="n"/>
-      <c r="D17" s="92" t="n"/>
-      <c r="E17" s="91" t="n"/>
-      <c r="F17" s="92" t="n"/>
-      <c r="G17" s="91" t="n"/>
-      <c r="H17" s="92" t="n"/>
-      <c r="I17" s="91" t="n"/>
-      <c r="J17" s="92" t="n"/>
-      <c r="K17" s="91" t="n"/>
-      <c r="L17" s="92" t="n"/>
-      <c r="M17" s="91" t="n"/>
-      <c r="N17" s="92" t="n"/>
-      <c r="O17" s="91" t="n"/>
-      <c r="P17" s="92" t="n"/>
+      <c r="C17" s="89" t="n"/>
+      <c r="D17" s="90" t="n"/>
+      <c r="E17" s="89" t="n"/>
+      <c r="F17" s="90" t="n"/>
+      <c r="G17" s="89" t="n"/>
+      <c r="H17" s="90" t="n"/>
+      <c r="I17" s="89" t="n"/>
+      <c r="J17" s="90" t="n"/>
+      <c r="K17" s="89" t="n"/>
+      <c r="L17" s="90" t="n"/>
+      <c r="M17" s="89" t="n"/>
+      <c r="N17" s="90" t="n"/>
+      <c r="O17" s="89" t="n"/>
+      <c r="P17" s="90" t="n"/>
       <c r="Q17" s="3" t="n"/>
     </row>
     <row r="18" ht="32.25" customHeight="1">
@@ -2277,20 +1922,20 @@
           <t>Jumps</t>
         </is>
       </c>
-      <c r="C18" s="97" t="n"/>
-      <c r="D18" s="98" t="n"/>
-      <c r="E18" s="97" t="n"/>
-      <c r="F18" s="98" t="n"/>
-      <c r="G18" s="97" t="n"/>
-      <c r="H18" s="98" t="n"/>
-      <c r="I18" s="97" t="n"/>
-      <c r="J18" s="98" t="n"/>
-      <c r="K18" s="97" t="n"/>
-      <c r="L18" s="98" t="n"/>
-      <c r="M18" s="97" t="n"/>
-      <c r="N18" s="98" t="n"/>
-      <c r="O18" s="97" t="n"/>
-      <c r="P18" s="98" t="n"/>
+      <c r="C18" s="91" t="n"/>
+      <c r="D18" s="92" t="n"/>
+      <c r="E18" s="91" t="n"/>
+      <c r="F18" s="92" t="n"/>
+      <c r="G18" s="91" t="n"/>
+      <c r="H18" s="92" t="n"/>
+      <c r="I18" s="91" t="n"/>
+      <c r="J18" s="92" t="n"/>
+      <c r="K18" s="91" t="n"/>
+      <c r="L18" s="92" t="n"/>
+      <c r="M18" s="91" t="n"/>
+      <c r="N18" s="92" t="n"/>
+      <c r="O18" s="91" t="n"/>
+      <c r="P18" s="92" t="n"/>
       <c r="Q18" s="3" t="n"/>
     </row>
     <row r="19" ht="32.25" customHeight="1">
@@ -2300,20 +1945,20 @@
           <t>Ross Jeffs</t>
         </is>
       </c>
-      <c r="C19" s="91" t="n"/>
-      <c r="D19" s="92" t="n"/>
-      <c r="E19" s="91" t="n"/>
-      <c r="F19" s="92" t="n"/>
-      <c r="G19" s="91" t="n"/>
-      <c r="H19" s="92" t="n"/>
-      <c r="I19" s="91" t="n"/>
-      <c r="J19" s="92" t="n"/>
-      <c r="K19" s="91" t="n"/>
-      <c r="L19" s="92" t="n"/>
-      <c r="M19" s="91" t="n"/>
-      <c r="N19" s="92" t="n"/>
-      <c r="O19" s="91" t="n"/>
-      <c r="P19" s="92" t="n"/>
+      <c r="C19" s="89" t="n"/>
+      <c r="D19" s="90" t="n"/>
+      <c r="E19" s="89" t="n"/>
+      <c r="F19" s="90" t="n"/>
+      <c r="G19" s="89" t="n"/>
+      <c r="H19" s="90" t="n"/>
+      <c r="I19" s="89" t="n"/>
+      <c r="J19" s="90" t="n"/>
+      <c r="K19" s="89" t="n"/>
+      <c r="L19" s="90" t="n"/>
+      <c r="M19" s="89" t="n"/>
+      <c r="N19" s="90" t="n"/>
+      <c r="O19" s="89" t="n"/>
+      <c r="P19" s="90" t="n"/>
       <c r="Q19" s="3" t="n"/>
     </row>
     <row r="20" ht="32.25" customHeight="1">
@@ -2346,20 +1991,20 @@
           <t>Elwalid Abdullah</t>
         </is>
       </c>
-      <c r="C21" s="91" t="n"/>
-      <c r="D21" s="92" t="n"/>
-      <c r="E21" s="91" t="n"/>
-      <c r="F21" s="92" t="n"/>
-      <c r="G21" s="91" t="n"/>
-      <c r="H21" s="92" t="n"/>
-      <c r="I21" s="91" t="n"/>
-      <c r="J21" s="92" t="n"/>
-      <c r="K21" s="91" t="n"/>
-      <c r="L21" s="92" t="n"/>
-      <c r="M21" s="91" t="n"/>
-      <c r="N21" s="92" t="n"/>
-      <c r="O21" s="91" t="n"/>
-      <c r="P21" s="92" t="n"/>
+      <c r="C21" s="89" t="n"/>
+      <c r="D21" s="90" t="n"/>
+      <c r="E21" s="89" t="n"/>
+      <c r="F21" s="90" t="n"/>
+      <c r="G21" s="89" t="n"/>
+      <c r="H21" s="90" t="n"/>
+      <c r="I21" s="89" t="n"/>
+      <c r="J21" s="90" t="n"/>
+      <c r="K21" s="89" t="n"/>
+      <c r="L21" s="90" t="n"/>
+      <c r="M21" s="89" t="n"/>
+      <c r="N21" s="90" t="n"/>
+      <c r="O21" s="89" t="n"/>
+      <c r="P21" s="90" t="n"/>
       <c r="Q21" s="3" t="n"/>
     </row>
     <row r="22" ht="32.25" customHeight="1">
@@ -2369,76 +2014,20 @@
           <t>Sprints</t>
         </is>
       </c>
-      <c r="C22" s="95" t="inlineStr">
-        <is>
-          <t>TRAINING CAMP</t>
-        </is>
-      </c>
-      <c r="D22" s="96" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E22" s="95" t="inlineStr">
-        <is>
-          <t>TRAINING CAMP</t>
-        </is>
-      </c>
-      <c r="F22" s="96" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="G22" s="95" t="inlineStr">
-        <is>
-          <t>TRAINING CAMP</t>
-        </is>
-      </c>
-      <c r="H22" s="96" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I22" s="95" t="inlineStr">
-        <is>
-          <t>TRAINING CAMP</t>
-        </is>
-      </c>
-      <c r="J22" s="96" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="K22" s="95" t="inlineStr">
-        <is>
-          <t>TRAINING CAMP</t>
-        </is>
-      </c>
-      <c r="L22" s="96" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="M22" s="95" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="N22" s="96" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="O22" s="95" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="P22" s="96" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+      <c r="C22" s="91" t="n"/>
+      <c r="D22" s="92" t="n"/>
+      <c r="E22" s="91" t="n"/>
+      <c r="F22" s="92" t="n"/>
+      <c r="G22" s="91" t="n"/>
+      <c r="H22" s="92" t="n"/>
+      <c r="I22" s="91" t="n"/>
+      <c r="J22" s="92" t="n"/>
+      <c r="K22" s="91" t="n"/>
+      <c r="L22" s="92" t="n"/>
+      <c r="M22" s="91" t="n"/>
+      <c r="N22" s="92" t="n"/>
+      <c r="O22" s="91" t="n"/>
+      <c r="P22" s="92" t="n"/>
       <c r="Q22" s="3" t="n"/>
     </row>
     <row r="23" ht="32.25" customHeight="1">
@@ -2448,20 +2037,20 @@
           <t>Lee</t>
         </is>
       </c>
-      <c r="C23" s="91" t="n"/>
-      <c r="D23" s="92" t="n"/>
-      <c r="E23" s="91" t="n"/>
-      <c r="F23" s="92" t="n"/>
-      <c r="G23" s="91" t="n"/>
-      <c r="H23" s="92" t="n"/>
-      <c r="I23" s="91" t="n"/>
-      <c r="J23" s="92" t="n"/>
-      <c r="K23" s="91" t="n"/>
-      <c r="L23" s="92" t="n"/>
-      <c r="M23" s="91" t="n"/>
-      <c r="N23" s="92" t="n"/>
-      <c r="O23" s="91" t="n"/>
-      <c r="P23" s="92" t="n"/>
+      <c r="C23" s="89" t="n"/>
+      <c r="D23" s="90" t="n"/>
+      <c r="E23" s="89" t="n"/>
+      <c r="F23" s="90" t="n"/>
+      <c r="G23" s="89" t="n"/>
+      <c r="H23" s="90" t="n"/>
+      <c r="I23" s="89" t="n"/>
+      <c r="J23" s="90" t="n"/>
+      <c r="K23" s="89" t="n"/>
+      <c r="L23" s="90" t="n"/>
+      <c r="M23" s="89" t="n"/>
+      <c r="N23" s="90" t="n"/>
+      <c r="O23" s="89" t="n"/>
+      <c r="P23" s="90" t="n"/>
       <c r="Q23" s="3" t="n"/>
     </row>
     <row r="24" ht="32.25" customHeight="1">
@@ -2471,84 +2060,20 @@
           <t>Sprints</t>
         </is>
       </c>
-      <c r="C24" s="93" t="inlineStr">
-        <is>
-          <t>Indoor Track
-	10:30-12:00</t>
-        </is>
-      </c>
-      <c r="D24" s="94" t="inlineStr">
-        <is>
-          <t>Outdoor Track
-	16:00-18:00</t>
-        </is>
-      </c>
-      <c r="E24" s="93" t="inlineStr">
-        <is>
-          <t>Gym B
-	10:30-12:00</t>
-        </is>
-      </c>
-      <c r="F24" s="94" t="inlineStr">
-        <is>
-          <t>Blue Ice
-	16:00-18:00</t>
-        </is>
-      </c>
-      <c r="G24" s="93" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="H24" s="94" t="inlineStr">
-        <is>
-          <t>Indoor Track
-	16:00-18:00</t>
-        </is>
-      </c>
-      <c r="I24" s="93" t="inlineStr">
-        <is>
-          <t>Indoor Track
-	10:30-12:00</t>
-        </is>
-      </c>
-      <c r="J24" s="94" t="inlineStr">
-        <is>
-          <t>Outdoor Track
-	16:00-18:00</t>
-        </is>
-      </c>
-      <c r="K24" s="93" t="inlineStr">
-        <is>
-          <t>Gym B
-	10:30-12:00</t>
-        </is>
-      </c>
-      <c r="L24" s="94" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="M24" s="93" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="N24" s="94" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="O24" s="93" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="P24" s="94" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+      <c r="C24" s="28" t="n"/>
+      <c r="D24" s="21" t="n"/>
+      <c r="E24" s="28" t="n"/>
+      <c r="F24" s="21" t="n"/>
+      <c r="G24" s="28" t="n"/>
+      <c r="H24" s="21" t="n"/>
+      <c r="I24" s="28" t="n"/>
+      <c r="J24" s="21" t="n"/>
+      <c r="K24" s="28" t="n"/>
+      <c r="L24" s="21" t="n"/>
+      <c r="M24" s="28" t="n"/>
+      <c r="N24" s="21" t="n"/>
+      <c r="O24" s="28" t="n"/>
+      <c r="P24" s="21" t="n"/>
       <c r="Q24" s="3" t="n"/>
     </row>
     <row r="25" ht="32.25" customHeight="1">
@@ -2558,20 +2083,20 @@
           <t>Hamdi</t>
         </is>
       </c>
-      <c r="C25" s="91" t="n"/>
-      <c r="D25" s="92" t="n"/>
-      <c r="E25" s="91" t="n"/>
-      <c r="F25" s="92" t="n"/>
-      <c r="G25" s="91" t="n"/>
-      <c r="H25" s="92" t="n"/>
-      <c r="I25" s="91" t="n"/>
-      <c r="J25" s="92" t="n"/>
-      <c r="K25" s="91" t="n"/>
-      <c r="L25" s="92" t="n"/>
-      <c r="M25" s="91" t="n"/>
-      <c r="N25" s="92" t="n"/>
-      <c r="O25" s="91" t="n"/>
-      <c r="P25" s="92" t="n"/>
+      <c r="C25" s="89" t="n"/>
+      <c r="D25" s="90" t="n"/>
+      <c r="E25" s="89" t="n"/>
+      <c r="F25" s="90" t="n"/>
+      <c r="G25" s="89" t="n"/>
+      <c r="H25" s="90" t="n"/>
+      <c r="I25" s="89" t="n"/>
+      <c r="J25" s="90" t="n"/>
+      <c r="K25" s="89" t="n"/>
+      <c r="L25" s="90" t="n"/>
+      <c r="M25" s="89" t="n"/>
+      <c r="N25" s="90" t="n"/>
+      <c r="O25" s="89" t="n"/>
+      <c r="P25" s="90" t="n"/>
       <c r="Q25" s="3" t="n"/>
     </row>
     <row r="26" ht="32.25" customHeight="1">
@@ -2581,84 +2106,20 @@
           <t>Throws</t>
         </is>
       </c>
-      <c r="C26" s="95" t="inlineStr">
-        <is>
-          <t>Outdoor Throws
-	10:30-12:00</t>
-        </is>
-      </c>
-      <c r="D26" s="96" t="inlineStr">
-        <is>
-          <t>Gym A
-	16:00-18:00</t>
-        </is>
-      </c>
-      <c r="E26" s="95" t="inlineStr">
-        <is>
-          <t>Outdoor Throws
-	10:30-12:00</t>
-        </is>
-      </c>
-      <c r="F26" s="96" t="inlineStr">
-        <is>
-          <t>Outdoor Throws
-	16:00-18:00</t>
-        </is>
-      </c>
-      <c r="G26" s="95" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="H26" s="96" t="inlineStr">
-        <is>
-          <t>Gym A
-	16:00-18:00</t>
-        </is>
-      </c>
-      <c r="I26" s="95" t="inlineStr">
-        <is>
-          <t>Outdoor Throws
-	10:30-12:00</t>
-        </is>
-      </c>
-      <c r="J26" s="96" t="inlineStr">
-        <is>
-          <t>Outdoor Throws
-	16:00-18:00</t>
-        </is>
-      </c>
-      <c r="K26" s="95" t="inlineStr">
-        <is>
-          <t>Gym A
-	10:30-12:00</t>
-        </is>
-      </c>
-      <c r="L26" s="96" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="M26" s="95" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="N26" s="96" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="O26" s="95" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="P26" s="96" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+      <c r="C26" s="91" t="n"/>
+      <c r="D26" s="92" t="n"/>
+      <c r="E26" s="91" t="n"/>
+      <c r="F26" s="92" t="n"/>
+      <c r="G26" s="91" t="n"/>
+      <c r="H26" s="92" t="n"/>
+      <c r="I26" s="91" t="n"/>
+      <c r="J26" s="92" t="n"/>
+      <c r="K26" s="91" t="n"/>
+      <c r="L26" s="92" t="n"/>
+      <c r="M26" s="91" t="n"/>
+      <c r="N26" s="92" t="n"/>
+      <c r="O26" s="91" t="n"/>
+      <c r="P26" s="92" t="n"/>
       <c r="Q26" s="3" t="n"/>
     </row>
     <row r="27" ht="32.25" customHeight="1">
@@ -2668,20 +2129,20 @@
           <t>Ivica Jakelic</t>
         </is>
       </c>
-      <c r="C27" s="91" t="n"/>
-      <c r="D27" s="92" t="n"/>
-      <c r="E27" s="91" t="n"/>
-      <c r="F27" s="92" t="n"/>
-      <c r="G27" s="91" t="n"/>
-      <c r="H27" s="92" t="n"/>
-      <c r="I27" s="91" t="n"/>
-      <c r="J27" s="92" t="n"/>
-      <c r="K27" s="91" t="n"/>
-      <c r="L27" s="92" t="n"/>
-      <c r="M27" s="91" t="n"/>
-      <c r="N27" s="92" t="n"/>
-      <c r="O27" s="91" t="n"/>
-      <c r="P27" s="92" t="n"/>
+      <c r="C27" s="89" t="n"/>
+      <c r="D27" s="90" t="n"/>
+      <c r="E27" s="89" t="n"/>
+      <c r="F27" s="90" t="n"/>
+      <c r="G27" s="89" t="n"/>
+      <c r="H27" s="90" t="n"/>
+      <c r="I27" s="89" t="n"/>
+      <c r="J27" s="90" t="n"/>
+      <c r="K27" s="89" t="n"/>
+      <c r="L27" s="90" t="n"/>
+      <c r="M27" s="89" t="n"/>
+      <c r="N27" s="90" t="n"/>
+      <c r="O27" s="89" t="n"/>
+      <c r="P27" s="90" t="n"/>
       <c r="Q27" s="3" t="n"/>
     </row>
     <row r="28" ht="32.25" customHeight="1">
@@ -2706,20 +2167,20 @@
     <row r="29" ht="32.25" customHeight="1" thickBot="1">
       <c r="A29" s="3" t="n"/>
       <c r="B29" s="13" t="n"/>
-      <c r="C29" s="99" t="n"/>
-      <c r="D29" s="100" t="n"/>
-      <c r="E29" s="99" t="n"/>
-      <c r="F29" s="100" t="n"/>
-      <c r="G29" s="99" t="n"/>
-      <c r="H29" s="100" t="n"/>
-      <c r="I29" s="99" t="n"/>
-      <c r="J29" s="100" t="n"/>
-      <c r="K29" s="99" t="n"/>
-      <c r="L29" s="100" t="n"/>
-      <c r="M29" s="99" t="n"/>
-      <c r="N29" s="100" t="n"/>
-      <c r="O29" s="99" t="n"/>
-      <c r="P29" s="100" t="n"/>
+      <c r="C29" s="93" t="n"/>
+      <c r="D29" s="94" t="n"/>
+      <c r="E29" s="93" t="n"/>
+      <c r="F29" s="94" t="n"/>
+      <c r="G29" s="93" t="n"/>
+      <c r="H29" s="94" t="n"/>
+      <c r="I29" s="93" t="n"/>
+      <c r="J29" s="94" t="n"/>
+      <c r="K29" s="93" t="n"/>
+      <c r="L29" s="94" t="n"/>
+      <c r="M29" s="93" t="n"/>
+      <c r="N29" s="94" t="n"/>
+      <c r="O29" s="93" t="n"/>
+      <c r="P29" s="94" t="n"/>
       <c r="Q29" s="3" t="n"/>
     </row>
     <row r="30" ht="5.25" customHeight="1">
@@ -2779,24 +2240,24 @@
     </row>
     <row r="33" ht="26.25" customHeight="1">
       <c r="A33" s="3" t="n"/>
-      <c r="B33" s="101" t="inlineStr">
+      <c r="B33" s="95" t="inlineStr">
         <is>
           <t>Aspire Academy Sports Department
 Weekly Training Plan</t>
         </is>
       </c>
-      <c r="C33" s="102" t="n"/>
-      <c r="D33" s="102" t="n"/>
-      <c r="E33" s="102" t="n"/>
-      <c r="F33" s="102" t="n"/>
-      <c r="G33" s="102" t="n"/>
-      <c r="H33" s="102" t="n"/>
-      <c r="I33" s="102" t="n"/>
-      <c r="J33" s="102" t="n"/>
-      <c r="K33" s="102" t="n"/>
-      <c r="L33" s="102" t="n"/>
-      <c r="M33" s="102" t="n"/>
-      <c r="N33" s="102" t="n"/>
+      <c r="C33" s="96" t="n"/>
+      <c r="D33" s="96" t="n"/>
+      <c r="E33" s="96" t="n"/>
+      <c r="F33" s="96" t="n"/>
+      <c r="G33" s="96" t="n"/>
+      <c r="H33" s="96" t="n"/>
+      <c r="I33" s="96" t="n"/>
+      <c r="J33" s="96" t="n"/>
+      <c r="K33" s="96" t="n"/>
+      <c r="L33" s="96" t="n"/>
+      <c r="M33" s="96" t="n"/>
+      <c r="N33" s="96" t="n"/>
       <c r="O33" s="78" t="inlineStr">
         <is>
           <t>Week beginning 09 Feb
@@ -2826,7 +2287,7 @@
     </row>
     <row r="35" ht="24.75" customHeight="1">
       <c r="A35" s="3" t="n"/>
-      <c r="B35" s="103" t="inlineStr">
+      <c r="B35" s="97" t="inlineStr">
         <is>
           <t>Group</t>
         </is>
@@ -2957,84 +2418,20 @@
           <t>Squash</t>
         </is>
       </c>
-      <c r="C37" s="89" t="inlineStr">
-        <is>
-          <t>Squash Courts
-	10:30-12:00</t>
-        </is>
-      </c>
-      <c r="D37" s="90" t="inlineStr">
-        <is>
-          <t>Squash Courts
-	16:00-18:00</t>
-        </is>
-      </c>
-      <c r="E37" s="89" t="inlineStr">
-        <is>
-          <t>Squash Courts
-	10:30-12:00</t>
-        </is>
-      </c>
-      <c r="F37" s="90" t="inlineStr">
-        <is>
-          <t>Squash Courts
-	16:00-18:00</t>
-        </is>
-      </c>
-      <c r="G37" s="89" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="H37" s="90" t="inlineStr">
-        <is>
-          <t>Squash Courts
-	15:30-17:30</t>
-        </is>
-      </c>
-      <c r="I37" s="89" t="inlineStr">
-        <is>
-          <t>Squash Courts
-	10:30-12:00</t>
-        </is>
-      </c>
-      <c r="J37" s="90" t="inlineStr">
-        <is>
-          <t>Squash Courts
-	16:00-18:00</t>
-        </is>
-      </c>
-      <c r="K37" s="89" t="inlineStr">
-        <is>
-          <t>Squash Courts
-	10:15-11:45</t>
-        </is>
-      </c>
-      <c r="L37" s="90" t="inlineStr">
-        <is>
-          <t>TRAINING CAMP</t>
-        </is>
-      </c>
-      <c r="M37" s="89" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="N37" s="90" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="O37" s="89" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="P37" s="90" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+      <c r="C37" s="50" t="n"/>
+      <c r="D37" s="52" t="n"/>
+      <c r="E37" s="50" t="n"/>
+      <c r="F37" s="52" t="n"/>
+      <c r="G37" s="50" t="n"/>
+      <c r="H37" s="52" t="n"/>
+      <c r="I37" s="50" t="n"/>
+      <c r="J37" s="52" t="n"/>
+      <c r="K37" s="50" t="n"/>
+      <c r="L37" s="52" t="n"/>
+      <c r="M37" s="50" t="n"/>
+      <c r="N37" s="52" t="n"/>
+      <c r="O37" s="50" t="n"/>
+      <c r="P37" s="52" t="n"/>
       <c r="Q37" s="3" t="n"/>
     </row>
     <row r="38" ht="37.5" customHeight="1">
@@ -3044,20 +2441,20 @@
           <t>Jonathon Power</t>
         </is>
       </c>
-      <c r="C38" s="91" t="n"/>
-      <c r="D38" s="92" t="n"/>
-      <c r="E38" s="91" t="n"/>
-      <c r="F38" s="92" t="n"/>
-      <c r="G38" s="91" t="n"/>
-      <c r="H38" s="92" t="n"/>
-      <c r="I38" s="91" t="n"/>
-      <c r="J38" s="92" t="n"/>
-      <c r="K38" s="91" t="n"/>
-      <c r="L38" s="92" t="n"/>
-      <c r="M38" s="91" t="n"/>
-      <c r="N38" s="92" t="n"/>
-      <c r="O38" s="91" t="n"/>
-      <c r="P38" s="92" t="n"/>
+      <c r="C38" s="89" t="n"/>
+      <c r="D38" s="90" t="n"/>
+      <c r="E38" s="89" t="n"/>
+      <c r="F38" s="90" t="n"/>
+      <c r="G38" s="89" t="n"/>
+      <c r="H38" s="90" t="n"/>
+      <c r="I38" s="89" t="n"/>
+      <c r="J38" s="90" t="n"/>
+      <c r="K38" s="89" t="n"/>
+      <c r="L38" s="90" t="n"/>
+      <c r="M38" s="89" t="n"/>
+      <c r="N38" s="90" t="n"/>
+      <c r="O38" s="89" t="n"/>
+      <c r="P38" s="90" t="n"/>
       <c r="Q38" s="3" t="n"/>
     </row>
     <row r="39" ht="21" customHeight="1">
@@ -3067,84 +2464,20 @@
           <t>Table Tennis</t>
         </is>
       </c>
-      <c r="C39" s="93" t="inlineStr">
-        <is>
-          <t>Table Tennis Hall
-	10:00-12:00</t>
-        </is>
-      </c>
-      <c r="D39" s="94" t="inlineStr">
-        <is>
-          <t>Table Tennis Hall
-	16:00-18:00</t>
-        </is>
-      </c>
-      <c r="E39" s="93" t="inlineStr">
-        <is>
-          <t>Table Tennis Hall
-	10:00-12:00</t>
-        </is>
-      </c>
-      <c r="F39" s="94" t="inlineStr">
-        <is>
-          <t>Table Tennis Hall
-	16:00-18:00</t>
-        </is>
-      </c>
-      <c r="G39" s="93" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="H39" s="94" t="inlineStr">
-        <is>
-          <t>Table Tennis Hall
-	15:30-17:30</t>
-        </is>
-      </c>
-      <c r="I39" s="93" t="inlineStr">
-        <is>
-          <t>Table Tennis Hall
-	10:30-12:00</t>
-        </is>
-      </c>
-      <c r="J39" s="94" t="inlineStr">
-        <is>
-          <t>Table Tennis Hall
-	16:00-18:00</t>
-        </is>
-      </c>
-      <c r="K39" s="93" t="inlineStr">
-        <is>
-          <t>Table Tennis Hall
-	10:30-12:00</t>
-        </is>
-      </c>
-      <c r="L39" s="94" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="M39" s="93" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="N39" s="94" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="O39" s="93" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="P39" s="94" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+      <c r="C39" s="28" t="n"/>
+      <c r="D39" s="21" t="n"/>
+      <c r="E39" s="28" t="n"/>
+      <c r="F39" s="21" t="n"/>
+      <c r="G39" s="28" t="n"/>
+      <c r="H39" s="21" t="n"/>
+      <c r="I39" s="28" t="n"/>
+      <c r="J39" s="21" t="n"/>
+      <c r="K39" s="28" t="n"/>
+      <c r="L39" s="21" t="n"/>
+      <c r="M39" s="28" t="n"/>
+      <c r="N39" s="21" t="n"/>
+      <c r="O39" s="28" t="n"/>
+      <c r="P39" s="21" t="n"/>
       <c r="Q39" s="3" t="n"/>
     </row>
     <row r="40" ht="34.5" customHeight="1">
@@ -3154,20 +2487,20 @@
           <t>Peter Karlsson</t>
         </is>
       </c>
-      <c r="C40" s="91" t="n"/>
-      <c r="D40" s="92" t="n"/>
-      <c r="E40" s="91" t="n"/>
-      <c r="F40" s="92" t="n"/>
-      <c r="G40" s="91" t="n"/>
-      <c r="H40" s="92" t="n"/>
-      <c r="I40" s="91" t="n"/>
-      <c r="J40" s="92" t="n"/>
-      <c r="K40" s="91" t="n"/>
-      <c r="L40" s="92" t="n"/>
-      <c r="M40" s="91" t="n"/>
-      <c r="N40" s="92" t="n"/>
-      <c r="O40" s="91" t="n"/>
-      <c r="P40" s="92" t="n"/>
+      <c r="C40" s="89" t="n"/>
+      <c r="D40" s="90" t="n"/>
+      <c r="E40" s="89" t="n"/>
+      <c r="F40" s="90" t="n"/>
+      <c r="G40" s="89" t="n"/>
+      <c r="H40" s="90" t="n"/>
+      <c r="I40" s="89" t="n"/>
+      <c r="J40" s="90" t="n"/>
+      <c r="K40" s="89" t="n"/>
+      <c r="L40" s="90" t="n"/>
+      <c r="M40" s="89" t="n"/>
+      <c r="N40" s="90" t="n"/>
+      <c r="O40" s="89" t="n"/>
+      <c r="P40" s="90" t="n"/>
       <c r="Q40" s="3" t="n"/>
     </row>
     <row r="41" ht="23.5" customHeight="1">
@@ -3177,84 +2510,20 @@
           <t>Fencing</t>
         </is>
       </c>
-      <c r="C41" s="95" t="inlineStr">
-        <is>
-          <t>Fencing Hall
-	10:30-12:00</t>
-        </is>
-      </c>
-      <c r="D41" s="96" t="inlineStr">
-        <is>
-          <t>Fencing Hall
-	16:00-18:00</t>
-        </is>
-      </c>
-      <c r="E41" s="95" t="inlineStr">
-        <is>
-          <t>Fencing Hall
-	10:30-12:00</t>
-        </is>
-      </c>
-      <c r="F41" s="96" t="inlineStr">
-        <is>
-          <t>Fencing Hall
-	16:00-18:00</t>
-        </is>
-      </c>
-      <c r="G41" s="95" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="H41" s="96" t="inlineStr">
-        <is>
-          <t>Fencing Hall
-	15:30-18:00</t>
-        </is>
-      </c>
-      <c r="I41" s="95" t="inlineStr">
-        <is>
-          <t>Fencing Hall
-	10:30-12:00</t>
-        </is>
-      </c>
-      <c r="J41" s="96" t="inlineStr">
-        <is>
-          <t>Fencing Hall
-	16:00-18:00</t>
-        </is>
-      </c>
-      <c r="K41" s="95" t="inlineStr">
-        <is>
-          <t>Fencing Hall
-	10:30-12:00</t>
-        </is>
-      </c>
-      <c r="L41" s="96" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="M41" s="95" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="N41" s="96" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="O41" s="95" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="P41" s="96" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+      <c r="C41" s="91" t="n"/>
+      <c r="D41" s="92" t="n"/>
+      <c r="E41" s="91" t="n"/>
+      <c r="F41" s="92" t="n"/>
+      <c r="G41" s="91" t="n"/>
+      <c r="H41" s="92" t="n"/>
+      <c r="I41" s="91" t="n"/>
+      <c r="J41" s="92" t="n"/>
+      <c r="K41" s="91" t="n"/>
+      <c r="L41" s="92" t="n"/>
+      <c r="M41" s="91" t="n"/>
+      <c r="N41" s="92" t="n"/>
+      <c r="O41" s="91" t="n"/>
+      <c r="P41" s="92" t="n"/>
       <c r="Q41" s="3" t="n"/>
     </row>
     <row r="42" ht="34.5" customHeight="1">
@@ -3264,20 +2533,20 @@
           <t>Massimo Omeri</t>
         </is>
       </c>
-      <c r="C42" s="91" t="n"/>
-      <c r="D42" s="92" t="n"/>
-      <c r="E42" s="91" t="n"/>
-      <c r="F42" s="92" t="n"/>
-      <c r="G42" s="91" t="n"/>
-      <c r="H42" s="92" t="n"/>
-      <c r="I42" s="91" t="n"/>
-      <c r="J42" s="92" t="n"/>
-      <c r="K42" s="91" t="n"/>
-      <c r="L42" s="92" t="n"/>
-      <c r="M42" s="91" t="n"/>
-      <c r="N42" s="92" t="n"/>
-      <c r="O42" s="91" t="n"/>
-      <c r="P42" s="92" t="n"/>
+      <c r="C42" s="89" t="n"/>
+      <c r="D42" s="90" t="n"/>
+      <c r="E42" s="89" t="n"/>
+      <c r="F42" s="90" t="n"/>
+      <c r="G42" s="89" t="n"/>
+      <c r="H42" s="90" t="n"/>
+      <c r="I42" s="89" t="n"/>
+      <c r="J42" s="90" t="n"/>
+      <c r="K42" s="89" t="n"/>
+      <c r="L42" s="90" t="n"/>
+      <c r="M42" s="89" t="n"/>
+      <c r="N42" s="90" t="n"/>
+      <c r="O42" s="89" t="n"/>
+      <c r="P42" s="90" t="n"/>
       <c r="Q42" s="3" t="n"/>
     </row>
     <row r="43" ht="28.5" customHeight="1">
@@ -3287,86 +2556,20 @@
           <t>Swimming</t>
         </is>
       </c>
-      <c r="C43" s="93" t="inlineStr">
-        <is>
-          <t>Swimming Pool
-	10:30-12:00</t>
-        </is>
-      </c>
-      <c r="D43" s="94" t="inlineStr">
-        <is>
-          <t>Swimming Pool
-	15:30-18:00</t>
-        </is>
-      </c>
-      <c r="E43" s="93" t="inlineStr">
-        <is>
-          <t>Gym A
-	10:30-12:00</t>
-        </is>
-      </c>
-      <c r="F43" s="94" t="inlineStr">
-        <is>
-          <t>Swimming Pool
-	15:30-18:00</t>
-        </is>
-      </c>
-      <c r="G43" s="93" t="inlineStr">
-        <is>
-          <t>Swimming Pool
-	08:30-11:00</t>
-        </is>
-      </c>
-      <c r="H43" s="94" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I43" s="93" t="inlineStr">
-        <is>
-          <t>Gym A
-	10:30-12:00</t>
-        </is>
-      </c>
-      <c r="J43" s="94" t="inlineStr">
-        <is>
-          <t>Swimming Pool
-	15:30-18:00</t>
-        </is>
-      </c>
-      <c r="K43" s="93" t="inlineStr">
-        <is>
-          <t>Swimming Pool
-	10:15-12:00</t>
-        </is>
-      </c>
-      <c r="L43" s="94" t="inlineStr">
-        <is>
-          <t>Swimming Pool
-	15:30-18:00</t>
-        </is>
-      </c>
-      <c r="M43" s="93" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="N43" s="94" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="O43" s="93" t="inlineStr">
-        <is>
-          <t>Swimming Pool
-	08:30-11:00</t>
-        </is>
-      </c>
-      <c r="P43" s="94" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+      <c r="C43" s="28" t="n"/>
+      <c r="D43" s="21" t="n"/>
+      <c r="E43" s="28" t="n"/>
+      <c r="F43" s="21" t="n"/>
+      <c r="G43" s="28" t="n"/>
+      <c r="H43" s="21" t="n"/>
+      <c r="I43" s="28" t="n"/>
+      <c r="J43" s="21" t="n"/>
+      <c r="K43" s="28" t="n"/>
+      <c r="L43" s="21" t="n"/>
+      <c r="M43" s="28" t="n"/>
+      <c r="N43" s="21" t="n"/>
+      <c r="O43" s="28" t="n"/>
+      <c r="P43" s="21" t="n"/>
       <c r="Q43" s="3" t="n"/>
     </row>
     <row r="44" ht="34.5" customHeight="1">
@@ -3376,20 +2579,20 @@
           <t>Evi Varamenti</t>
         </is>
       </c>
-      <c r="C44" s="91" t="n"/>
-      <c r="D44" s="92" t="n"/>
-      <c r="E44" s="91" t="n"/>
-      <c r="F44" s="92" t="n"/>
-      <c r="G44" s="91" t="n"/>
-      <c r="H44" s="92" t="n"/>
-      <c r="I44" s="91" t="n"/>
-      <c r="J44" s="92" t="n"/>
-      <c r="K44" s="91" t="n"/>
-      <c r="L44" s="92" t="n"/>
-      <c r="M44" s="91" t="n"/>
-      <c r="N44" s="92" t="n"/>
-      <c r="O44" s="91" t="n"/>
-      <c r="P44" s="92" t="n"/>
+      <c r="C44" s="89" t="n"/>
+      <c r="D44" s="90" t="n"/>
+      <c r="E44" s="89" t="n"/>
+      <c r="F44" s="90" t="n"/>
+      <c r="G44" s="89" t="n"/>
+      <c r="H44" s="90" t="n"/>
+      <c r="I44" s="89" t="n"/>
+      <c r="J44" s="90" t="n"/>
+      <c r="K44" s="89" t="n"/>
+      <c r="L44" s="90" t="n"/>
+      <c r="M44" s="89" t="n"/>
+      <c r="N44" s="90" t="n"/>
+      <c r="O44" s="89" t="n"/>
+      <c r="P44" s="90" t="n"/>
       <c r="Q44" s="3" t="n"/>
     </row>
     <row r="45" ht="28.5" customHeight="1">
@@ -3399,82 +2602,20 @@
           <t>Padel</t>
         </is>
       </c>
-      <c r="C45" s="104" t="inlineStr">
-        <is>
-          <t>PadelIN
-	10:30-11:30</t>
-        </is>
-      </c>
-      <c r="D45" s="105" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E45" s="104" t="inlineStr">
-        <is>
-          <t>PadelIN
-	10:30-11:30</t>
-        </is>
-      </c>
-      <c r="F45" s="105" t="inlineStr">
-        <is>
-          <t>Gym A
-	16:00-17:00</t>
-        </is>
-      </c>
-      <c r="G45" s="104" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="H45" s="105" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I45" s="104" t="inlineStr">
-        <is>
-          <t>PadelIN
-	10:30-11:30</t>
-        </is>
-      </c>
-      <c r="J45" s="105" t="inlineStr">
-        <is>
-          <t>Gym A
-	16:00-17:00</t>
-        </is>
-      </c>
-      <c r="K45" s="104" t="inlineStr">
-        <is>
-          <t>PadelIN
-	10:30-11:30</t>
-        </is>
-      </c>
-      <c r="L45" s="105" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="M45" s="104" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="N45" s="105" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="O45" s="104" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="P45" s="105" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+      <c r="C45" s="49" t="n"/>
+      <c r="D45" s="51" t="n"/>
+      <c r="E45" s="49" t="n"/>
+      <c r="F45" s="51" t="n"/>
+      <c r="G45" s="49" t="n"/>
+      <c r="H45" s="51" t="n"/>
+      <c r="I45" s="49" t="n"/>
+      <c r="J45" s="51" t="n"/>
+      <c r="K45" s="49" t="n"/>
+      <c r="L45" s="51" t="n"/>
+      <c r="M45" s="49" t="n"/>
+      <c r="N45" s="51" t="n"/>
+      <c r="O45" s="49" t="n"/>
+      <c r="P45" s="51" t="n"/>
       <c r="Q45" s="3" t="n"/>
     </row>
     <row r="46" ht="34.5" customHeight="1" thickBot="1">
@@ -3484,20 +2625,20 @@
           <t>Mariano Amat</t>
         </is>
       </c>
-      <c r="C46" s="106" t="n"/>
-      <c r="D46" s="107" t="n"/>
-      <c r="E46" s="106" t="n"/>
-      <c r="F46" s="107" t="n"/>
-      <c r="G46" s="106" t="n"/>
-      <c r="H46" s="107" t="n"/>
-      <c r="I46" s="106" t="n"/>
-      <c r="J46" s="107" t="n"/>
-      <c r="K46" s="106" t="n"/>
-      <c r="L46" s="107" t="n"/>
-      <c r="M46" s="106" t="n"/>
-      <c r="N46" s="107" t="n"/>
-      <c r="O46" s="106" t="n"/>
-      <c r="P46" s="107" t="n"/>
+      <c r="C46" s="98" t="n"/>
+      <c r="D46" s="99" t="n"/>
+      <c r="E46" s="98" t="n"/>
+      <c r="F46" s="99" t="n"/>
+      <c r="G46" s="98" t="n"/>
+      <c r="H46" s="99" t="n"/>
+      <c r="I46" s="98" t="n"/>
+      <c r="J46" s="99" t="n"/>
+      <c r="K46" s="98" t="n"/>
+      <c r="L46" s="99" t="n"/>
+      <c r="M46" s="98" t="n"/>
+      <c r="N46" s="99" t="n"/>
+      <c r="O46" s="98" t="n"/>
+      <c r="P46" s="99" t="n"/>
       <c r="Q46" s="3" t="n"/>
     </row>
     <row r="47" ht="16.5" customHeight="1" thickBot="1">
@@ -3508,19 +2649,19 @@
           <t>Pre Academy Programmes</t>
         </is>
       </c>
-      <c r="D47" s="108" t="n"/>
-      <c r="E47" s="108" t="n"/>
-      <c r="F47" s="108" t="n"/>
-      <c r="G47" s="108" t="n"/>
-      <c r="H47" s="108" t="n"/>
-      <c r="I47" s="108" t="n"/>
-      <c r="J47" s="108" t="n"/>
-      <c r="K47" s="108" t="n"/>
-      <c r="L47" s="108" t="n"/>
-      <c r="M47" s="108" t="n"/>
-      <c r="N47" s="108" t="n"/>
-      <c r="O47" s="108" t="n"/>
-      <c r="P47" s="109" t="n"/>
+      <c r="D47" s="100" t="n"/>
+      <c r="E47" s="100" t="n"/>
+      <c r="F47" s="100" t="n"/>
+      <c r="G47" s="100" t="n"/>
+      <c r="H47" s="100" t="n"/>
+      <c r="I47" s="100" t="n"/>
+      <c r="J47" s="100" t="n"/>
+      <c r="K47" s="100" t="n"/>
+      <c r="L47" s="100" t="n"/>
+      <c r="M47" s="100" t="n"/>
+      <c r="N47" s="100" t="n"/>
+      <c r="O47" s="100" t="n"/>
+      <c r="P47" s="101" t="n"/>
       <c r="Q47" s="3" t="n"/>
     </row>
     <row r="48" ht="31.5" customHeight="1">
@@ -3530,78 +2671,20 @@
           <t>Pre-Academy Padel Explorers</t>
         </is>
       </c>
-      <c r="C48" s="110" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D48" s="111" t="inlineStr">
-        <is>
-          <t>PadelIN
-	16:00-17:30</t>
-        </is>
-      </c>
-      <c r="E48" s="110" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F48" s="111" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="G48" s="110" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="H48" s="111" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I48" s="110" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="J48" s="111" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="K48" s="110" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="L48" s="111" t="inlineStr">
-        <is>
-          <t>PadelIN
-	16:00-17:30</t>
-        </is>
-      </c>
-      <c r="M48" s="110" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="N48" s="111" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="O48" s="110" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="P48" s="111" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+      <c r="C48" s="26" t="n"/>
+      <c r="D48" s="27" t="n"/>
+      <c r="E48" s="26" t="n"/>
+      <c r="F48" s="27" t="n"/>
+      <c r="G48" s="26" t="n"/>
+      <c r="H48" s="27" t="n"/>
+      <c r="I48" s="26" t="n"/>
+      <c r="J48" s="27" t="n"/>
+      <c r="K48" s="26" t="n"/>
+      <c r="L48" s="27" t="n"/>
+      <c r="M48" s="26" t="n"/>
+      <c r="N48" s="27" t="n"/>
+      <c r="O48" s="26" t="n"/>
+      <c r="P48" s="27" t="n"/>
       <c r="Q48" s="3" t="n"/>
     </row>
     <row r="49" ht="36" customHeight="1">
@@ -3611,79 +2694,20 @@
           <t>Pre-Academy Padel Explorers +</t>
         </is>
       </c>
-      <c r="C49" s="93" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D49" s="94" t="inlineStr">
-        <is>
-          <t>PadelIN
-	17:30-19:00</t>
-        </is>
-      </c>
-      <c r="E49" s="93" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F49" s="94" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="G49" s="93" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="H49" s="94" t="inlineStr">
-        <is>
-          <t>PadelIN
-	16:00-17:30</t>
-        </is>
-      </c>
-      <c r="I49" s="93" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="J49" s="94" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="K49" s="93" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="L49" s="94" t="inlineStr">
-        <is>
-          <t>PadelIN
-	17:30-19:00</t>
-        </is>
-      </c>
-      <c r="M49" s="93" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="N49" s="94" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="O49" s="93" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="P49" s="94" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+      <c r="C49" s="28" t="n"/>
+      <c r="D49" s="21" t="n"/>
+      <c r="E49" s="28" t="n"/>
+      <c r="F49" s="21" t="n"/>
+      <c r="G49" s="28" t="n"/>
+      <c r="H49" s="21" t="n"/>
+      <c r="I49" s="28" t="n"/>
+      <c r="J49" s="21" t="n"/>
+      <c r="K49" s="28" t="n"/>
+      <c r="L49" s="21" t="n"/>
+      <c r="M49" s="28" t="n"/>
+      <c r="N49" s="21" t="n"/>
+      <c r="O49" s="28" t="n"/>
+      <c r="P49" s="21" t="n"/>
       <c r="Q49" s="3" t="n"/>
     </row>
     <row r="50" ht="40" customHeight="1" thickBot="1">
@@ -3693,78 +2717,20 @@
           <t>Pre-Academy Padel Starters</t>
         </is>
       </c>
-      <c r="C50" s="112" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D50" s="113" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E50" s="112" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F50" s="113" t="inlineStr">
-        <is>
-          <t>PadelIN
-	16:00-17:30</t>
-        </is>
-      </c>
-      <c r="G50" s="112" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="H50" s="113" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I50" s="112" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="J50" s="113" t="inlineStr">
-        <is>
-          <t>PadelIN
-	16:00-17:30</t>
-        </is>
-      </c>
-      <c r="K50" s="112" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="L50" s="113" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="M50" s="112" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="N50" s="113" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="O50" s="112" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="P50" s="113" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+      <c r="C50" s="29" t="n"/>
+      <c r="D50" s="22" t="n"/>
+      <c r="E50" s="29" t="n"/>
+      <c r="F50" s="22" t="n"/>
+      <c r="G50" s="29" t="n"/>
+      <c r="H50" s="22" t="n"/>
+      <c r="I50" s="29" t="n"/>
+      <c r="J50" s="22" t="n"/>
+      <c r="K50" s="29" t="n"/>
+      <c r="L50" s="22" t="n"/>
+      <c r="M50" s="29" t="n"/>
+      <c r="N50" s="22" t="n"/>
+      <c r="O50" s="29" t="n"/>
+      <c r="P50" s="22" t="n"/>
       <c r="Q50" s="3" t="n"/>
     </row>
     <row r="51" ht="34.5" customHeight="1">
@@ -3775,80 +2741,20 @@
 Fencing</t>
         </is>
       </c>
-      <c r="C51" s="89" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D51" s="90" t="inlineStr">
-        <is>
-          <t>Fencing Hall
-	15:00-17:00</t>
-        </is>
-      </c>
-      <c r="E51" s="89" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F51" s="90" t="inlineStr">
-        <is>
-          <t>MPH 1
-	15:00-16:30</t>
-        </is>
-      </c>
-      <c r="G51" s="89" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="H51" s="90" t="inlineStr">
-        <is>
-          <t>Fencing Hall
-	15:00-17:00</t>
-        </is>
-      </c>
-      <c r="I51" s="89" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="J51" s="90" t="inlineStr">
-        <is>
-          <t>MPH 1
-	15:00-16:30</t>
-        </is>
-      </c>
-      <c r="K51" s="89" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="L51" s="90" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="M51" s="89" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="N51" s="90" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="O51" s="89" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="P51" s="90" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+      <c r="C51" s="50" t="n"/>
+      <c r="D51" s="52" t="n"/>
+      <c r="E51" s="50" t="n"/>
+      <c r="F51" s="52" t="n"/>
+      <c r="G51" s="50" t="n"/>
+      <c r="H51" s="52" t="n"/>
+      <c r="I51" s="50" t="n"/>
+      <c r="J51" s="52" t="n"/>
+      <c r="K51" s="50" t="n"/>
+      <c r="L51" s="52" t="n"/>
+      <c r="M51" s="50" t="n"/>
+      <c r="N51" s="52" t="n"/>
+      <c r="O51" s="50" t="n"/>
+      <c r="P51" s="52" t="n"/>
       <c r="Q51" s="3" t="n"/>
     </row>
     <row r="52" ht="27" customHeight="1">
@@ -3858,20 +2764,20 @@
           <t>Massimo Omeri</t>
         </is>
       </c>
-      <c r="C52" s="91" t="n"/>
-      <c r="D52" s="92" t="n"/>
-      <c r="E52" s="91" t="n"/>
-      <c r="F52" s="92" t="n"/>
-      <c r="G52" s="91" t="n"/>
-      <c r="H52" s="92" t="n"/>
-      <c r="I52" s="91" t="n"/>
-      <c r="J52" s="92" t="n"/>
-      <c r="K52" s="91" t="n"/>
-      <c r="L52" s="92" t="n"/>
-      <c r="M52" s="91" t="n"/>
-      <c r="N52" s="92" t="n"/>
-      <c r="O52" s="91" t="n"/>
-      <c r="P52" s="92" t="n"/>
+      <c r="C52" s="89" t="n"/>
+      <c r="D52" s="90" t="n"/>
+      <c r="E52" s="89" t="n"/>
+      <c r="F52" s="90" t="n"/>
+      <c r="G52" s="89" t="n"/>
+      <c r="H52" s="90" t="n"/>
+      <c r="I52" s="89" t="n"/>
+      <c r="J52" s="90" t="n"/>
+      <c r="K52" s="89" t="n"/>
+      <c r="L52" s="90" t="n"/>
+      <c r="M52" s="89" t="n"/>
+      <c r="N52" s="90" t="n"/>
+      <c r="O52" s="89" t="n"/>
+      <c r="P52" s="90" t="n"/>
       <c r="Q52" s="3" t="n"/>
     </row>
     <row r="53" ht="34.5" customHeight="1">
@@ -3901,20 +2807,20 @@
     <row r="54" ht="23" customHeight="1">
       <c r="A54" s="3" t="n"/>
       <c r="B54" s="13" t="n"/>
-      <c r="C54" s="91" t="n"/>
-      <c r="D54" s="92" t="n"/>
-      <c r="E54" s="91" t="n"/>
-      <c r="F54" s="92" t="n"/>
-      <c r="G54" s="91" t="n"/>
-      <c r="H54" s="92" t="n"/>
-      <c r="I54" s="91" t="n"/>
-      <c r="J54" s="92" t="n"/>
-      <c r="K54" s="91" t="n"/>
-      <c r="L54" s="92" t="n"/>
-      <c r="M54" s="91" t="n"/>
-      <c r="N54" s="92" t="n"/>
-      <c r="O54" s="91" t="n"/>
-      <c r="P54" s="92" t="n"/>
+      <c r="C54" s="89" t="n"/>
+      <c r="D54" s="90" t="n"/>
+      <c r="E54" s="89" t="n"/>
+      <c r="F54" s="90" t="n"/>
+      <c r="G54" s="89" t="n"/>
+      <c r="H54" s="90" t="n"/>
+      <c r="I54" s="89" t="n"/>
+      <c r="J54" s="90" t="n"/>
+      <c r="K54" s="89" t="n"/>
+      <c r="L54" s="90" t="n"/>
+      <c r="M54" s="89" t="n"/>
+      <c r="N54" s="90" t="n"/>
+      <c r="O54" s="89" t="n"/>
+      <c r="P54" s="90" t="n"/>
       <c r="Q54" s="3" t="n"/>
     </row>
     <row r="55" ht="34.5" customHeight="1">
@@ -3944,20 +2850,20 @@
     <row r="56" ht="26.5" customHeight="1" thickBot="1">
       <c r="A56" s="3" t="n"/>
       <c r="B56" s="20" t="n"/>
-      <c r="C56" s="106" t="n"/>
-      <c r="D56" s="107" t="n"/>
-      <c r="E56" s="106" t="n"/>
-      <c r="F56" s="107" t="n"/>
-      <c r="G56" s="106" t="n"/>
-      <c r="H56" s="107" t="n"/>
-      <c r="I56" s="106" t="n"/>
-      <c r="J56" s="107" t="n"/>
-      <c r="K56" s="106" t="n"/>
-      <c r="L56" s="107" t="n"/>
-      <c r="M56" s="106" t="n"/>
-      <c r="N56" s="107" t="n"/>
-      <c r="O56" s="106" t="n"/>
-      <c r="P56" s="107" t="n"/>
+      <c r="C56" s="98" t="n"/>
+      <c r="D56" s="99" t="n"/>
+      <c r="E56" s="98" t="n"/>
+      <c r="F56" s="99" t="n"/>
+      <c r="G56" s="98" t="n"/>
+      <c r="H56" s="99" t="n"/>
+      <c r="I56" s="98" t="n"/>
+      <c r="J56" s="99" t="n"/>
+      <c r="K56" s="98" t="n"/>
+      <c r="L56" s="99" t="n"/>
+      <c r="M56" s="98" t="n"/>
+      <c r="N56" s="99" t="n"/>
+      <c r="O56" s="98" t="n"/>
+      <c r="P56" s="99" t="n"/>
       <c r="Q56" s="3" t="n"/>
     </row>
     <row r="57" ht="17.5" customHeight="1" thickBot="1">
@@ -3972,19 +2878,19 @@
           <t>Girl Programme</t>
         </is>
       </c>
-      <c r="D57" s="108" t="n"/>
-      <c r="E57" s="108" t="n"/>
-      <c r="F57" s="108" t="n"/>
-      <c r="G57" s="108" t="n"/>
-      <c r="H57" s="108" t="n"/>
-      <c r="I57" s="108" t="n"/>
-      <c r="J57" s="108" t="n"/>
-      <c r="K57" s="108" t="n"/>
-      <c r="L57" s="108" t="n"/>
-      <c r="M57" s="108" t="n"/>
-      <c r="N57" s="108" t="n"/>
-      <c r="O57" s="108" t="n"/>
-      <c r="P57" s="114" t="n"/>
+      <c r="D57" s="100" t="n"/>
+      <c r="E57" s="100" t="n"/>
+      <c r="F57" s="100" t="n"/>
+      <c r="G57" s="100" t="n"/>
+      <c r="H57" s="100" t="n"/>
+      <c r="I57" s="100" t="n"/>
+      <c r="J57" s="100" t="n"/>
+      <c r="K57" s="100" t="n"/>
+      <c r="L57" s="100" t="n"/>
+      <c r="M57" s="100" t="n"/>
+      <c r="N57" s="100" t="n"/>
+      <c r="O57" s="100" t="n"/>
+      <c r="P57" s="102" t="n"/>
       <c r="Q57" s="3" t="n"/>
     </row>
     <row r="58" ht="54.5" customHeight="1">
@@ -3994,78 +2900,20 @@
           <t>Kids</t>
         </is>
       </c>
-      <c r="C58" s="115" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D58" s="116" t="inlineStr">
-        <is>
-          <t>MPH 2
-	15:00-16:15</t>
-        </is>
-      </c>
-      <c r="E58" s="117" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F58" s="116" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="G58" s="117" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="H58" s="116" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I58" s="117" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="J58" s="116" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="K58" s="117" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="L58" s="116" t="inlineStr">
-        <is>
-          <t>Gymnastics Hall
-	15:00-16:15</t>
-        </is>
-      </c>
-      <c r="M58" s="117" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="N58" s="116" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="O58" s="117" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="P58" s="116" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+      <c r="C58" s="32" t="n"/>
+      <c r="D58" s="33" t="n"/>
+      <c r="E58" s="34" t="n"/>
+      <c r="F58" s="33" t="n"/>
+      <c r="G58" s="34" t="n"/>
+      <c r="H58" s="33" t="n"/>
+      <c r="I58" s="34" t="n"/>
+      <c r="J58" s="33" t="n"/>
+      <c r="K58" s="34" t="n"/>
+      <c r="L58" s="33" t="n"/>
+      <c r="M58" s="34" t="n"/>
+      <c r="N58" s="33" t="n"/>
+      <c r="O58" s="34" t="n"/>
+      <c r="P58" s="33" t="n"/>
       <c r="Q58" s="3" t="n"/>
     </row>
     <row r="59" ht="55" customHeight="1">
@@ -4075,80 +2923,20 @@
           <t>Mini Cadet U14</t>
         </is>
       </c>
-      <c r="C59" s="118" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D59" s="119" t="inlineStr">
-        <is>
-          <t>Outdoor Throws
-15:00-16:30
-Indoor Track
-	15:00-16:30</t>
-        </is>
-      </c>
-      <c r="E59" s="118" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F59" s="119" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="G59" s="118" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="H59" s="119" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I59" s="118" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="J59" s="119" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="K59" s="118" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="L59" s="119" t="inlineStr">
-        <is>
-          <t>Indoor Track
-	15:00-16:30</t>
-        </is>
-      </c>
-      <c r="M59" s="118" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="N59" s="119" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="O59" s="118" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="P59" s="119" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+      <c r="C59" s="36" t="n"/>
+      <c r="D59" s="37" t="n"/>
+      <c r="E59" s="36" t="n"/>
+      <c r="F59" s="37" t="n"/>
+      <c r="G59" s="36" t="n"/>
+      <c r="H59" s="37" t="n"/>
+      <c r="I59" s="36" t="n"/>
+      <c r="J59" s="37" t="n"/>
+      <c r="K59" s="36" t="n"/>
+      <c r="L59" s="37" t="n"/>
+      <c r="M59" s="36" t="n"/>
+      <c r="N59" s="37" t="n"/>
+      <c r="O59" s="36" t="n"/>
+      <c r="P59" s="37" t="n"/>
       <c r="Q59" s="3" t="n"/>
     </row>
     <row r="60" ht="54" customHeight="1">
@@ -4158,81 +2946,20 @@
           <t>Cadet U16</t>
         </is>
       </c>
-      <c r="C60" s="118" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D60" s="119" t="inlineStr">
-        <is>
-          <t>Outdoor Throws
-15:00-16:30
-Indoor Track
-	15:00-16:30</t>
-        </is>
-      </c>
-      <c r="E60" s="118" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F60" s="119" t="inlineStr">
-        <is>
-          <t>Gym A
-	15:00-16:30</t>
-        </is>
-      </c>
-      <c r="G60" s="118" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="H60" s="119" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I60" s="118" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="J60" s="119" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="K60" s="118" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="L60" s="119" t="inlineStr">
-        <is>
-          <t>Gym A
-	15:00-16:30</t>
-        </is>
-      </c>
-      <c r="M60" s="118" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="N60" s="119" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="O60" s="118" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="P60" s="119" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+      <c r="C60" s="36" t="n"/>
+      <c r="D60" s="37" t="n"/>
+      <c r="E60" s="36" t="n"/>
+      <c r="F60" s="37" t="n"/>
+      <c r="G60" s="36" t="n"/>
+      <c r="H60" s="37" t="n"/>
+      <c r="I60" s="36" t="n"/>
+      <c r="J60" s="37" t="n"/>
+      <c r="K60" s="36" t="n"/>
+      <c r="L60" s="37" t="n"/>
+      <c r="M60" s="36" t="n"/>
+      <c r="N60" s="37" t="n"/>
+      <c r="O60" s="36" t="n"/>
+      <c r="P60" s="37" t="n"/>
       <c r="Q60" s="3" t="n"/>
     </row>
     <row r="61" ht="54.5" customHeight="1" thickBot="1">
@@ -4242,79 +2969,20 @@
           <t>Youth U18</t>
         </is>
       </c>
-      <c r="C61" s="120" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D61" s="121" t="inlineStr">
-        <is>
-          <t>Indoor Track
-	15:00-17:00</t>
-        </is>
-      </c>
-      <c r="E61" s="120" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F61" s="121" t="inlineStr">
-        <is>
-          <t>Gym A
-	15:00-16:30</t>
-        </is>
-      </c>
-      <c r="G61" s="120" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="H61" s="121" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I61" s="120" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="J61" s="121" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="K61" s="120" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="L61" s="121" t="inlineStr">
-        <is>
-          <t>Gym A
-	15:00-16:30</t>
-        </is>
-      </c>
-      <c r="M61" s="120" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="N61" s="121" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="O61" s="120" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="P61" s="121" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+      <c r="C61" s="39" t="n"/>
+      <c r="D61" s="40" t="n"/>
+      <c r="E61" s="39" t="n"/>
+      <c r="F61" s="40" t="n"/>
+      <c r="G61" s="39" t="n"/>
+      <c r="H61" s="40" t="n"/>
+      <c r="I61" s="39" t="n"/>
+      <c r="J61" s="40" t="n"/>
+      <c r="K61" s="39" t="n"/>
+      <c r="L61" s="40" t="n"/>
+      <c r="M61" s="39" t="n"/>
+      <c r="N61" s="40" t="n"/>
+      <c r="O61" s="39" t="n"/>
+      <c r="P61" s="40" t="n"/>
       <c r="Q61" s="3" t="n"/>
     </row>
     <row r="62" ht="5.25" customHeight="1">
@@ -4374,24 +3042,24 @@
     </row>
     <row r="65" ht="26.25" customHeight="1">
       <c r="A65" s="3" t="n"/>
-      <c r="B65" s="122" t="inlineStr">
+      <c r="B65" s="103" t="inlineStr">
         <is>
           <t>Aspire Academy Sports Department
 Weekly Training Plan - QAF GROUPS</t>
         </is>
       </c>
-      <c r="C65" s="102" t="n"/>
-      <c r="D65" s="102" t="n"/>
-      <c r="E65" s="102" t="n"/>
-      <c r="F65" s="102" t="n"/>
-      <c r="G65" s="102" t="n"/>
-      <c r="H65" s="102" t="n"/>
-      <c r="I65" s="102" t="n"/>
-      <c r="J65" s="102" t="n"/>
-      <c r="K65" s="102" t="n"/>
-      <c r="L65" s="102" t="n"/>
-      <c r="M65" s="102" t="n"/>
-      <c r="N65" s="102" t="n"/>
+      <c r="C65" s="96" t="n"/>
+      <c r="D65" s="96" t="n"/>
+      <c r="E65" s="96" t="n"/>
+      <c r="F65" s="96" t="n"/>
+      <c r="G65" s="96" t="n"/>
+      <c r="H65" s="96" t="n"/>
+      <c r="I65" s="96" t="n"/>
+      <c r="J65" s="96" t="n"/>
+      <c r="K65" s="96" t="n"/>
+      <c r="L65" s="96" t="n"/>
+      <c r="M65" s="96" t="n"/>
+      <c r="N65" s="96" t="n"/>
       <c r="O65" s="72" t="inlineStr">
         <is>
           <t>Week beginning 09 Feb
@@ -4421,7 +3089,7 @@
     </row>
     <row r="67" ht="24.75" customHeight="1">
       <c r="A67" s="3" t="n"/>
-      <c r="B67" s="103" t="inlineStr">
+      <c r="B67" s="97" t="inlineStr">
         <is>
           <t>Group</t>
         </is>
@@ -4552,82 +3220,96 @@
           <t>Sprints</t>
         </is>
       </c>
-      <c r="C69" s="89" t="inlineStr">
+      <c r="C69" s="104" t="inlineStr">
         <is>
           <t>Gym B
 09:00-09:30
+Indoor Track
+09:30-13:00
 Gym A
 	11:30-16:00</t>
         </is>
       </c>
-      <c r="D69" s="90" t="inlineStr">
+      <c r="D69" s="105" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="E69" s="89" t="inlineStr">
+      <c r="E69" s="104" t="inlineStr">
         <is>
           <t>Gym B
-	09:00-09:30</t>
-        </is>
-      </c>
-      <c r="F69" s="90" t="inlineStr">
+09:00-09:30
+Indoor Track
+09:30-13:00
+Outdoor Track
+	11:00-14:00</t>
+        </is>
+      </c>
+      <c r="F69" s="105" t="inlineStr">
         <is>
           <t>Gym B
 	12:00-16:30</t>
         </is>
       </c>
-      <c r="G69" s="89" t="inlineStr">
+      <c r="G69" s="104" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="H69" s="90" t="inlineStr">
+      <c r="H69" s="105" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="I69" s="89" t="inlineStr">
+      <c r="I69" s="104" t="inlineStr">
         <is>
           <t>Gym B
 09:00-09:30
+Outdoor Track
+09:30-11:45
 Gym A
 	11:45-13:15</t>
         </is>
       </c>
-      <c r="J69" s="90" t="inlineStr">
+      <c r="J69" s="105" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="K69" s="89" t="inlineStr">
+      <c r="K69" s="104" t="inlineStr">
         <is>
           <t>Gym B
-	09:00-09:30</t>
-        </is>
-      </c>
-      <c r="L69" s="90" t="inlineStr">
+09:00-09:30
+Indoor Track
+09:30-13:30
+Outdoor Track
+	11:00-14:00</t>
+        </is>
+      </c>
+      <c r="L69" s="105" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="M69" s="89" t="inlineStr">
+      <c r="M69" s="104" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="N69" s="90" t="inlineStr">
+      <c r="N69" s="105" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="O69" s="89" t="inlineStr">
-        <is>
-          <t>Blue Ice
+      <c r="O69" s="104" t="inlineStr">
+        <is>
+          <t>Gym A
+09:30-10:30
+Blue Ice
 	10:30-12:30</t>
         </is>
       </c>
-      <c r="P69" s="90" t="inlineStr">
+      <c r="P69" s="105" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
@@ -4641,20 +3323,20 @@
           <t>Steve Fudge</t>
         </is>
       </c>
-      <c r="C70" s="91" t="n"/>
-      <c r="D70" s="92" t="n"/>
-      <c r="E70" s="91" t="n"/>
-      <c r="F70" s="92" t="n"/>
-      <c r="G70" s="91" t="n"/>
-      <c r="H70" s="92" t="n"/>
-      <c r="I70" s="91" t="n"/>
-      <c r="J70" s="92" t="n"/>
-      <c r="K70" s="91" t="n"/>
-      <c r="L70" s="92" t="n"/>
-      <c r="M70" s="91" t="n"/>
-      <c r="N70" s="92" t="n"/>
-      <c r="O70" s="91" t="n"/>
-      <c r="P70" s="92" t="n"/>
+      <c r="C70" s="89" t="n"/>
+      <c r="D70" s="90" t="n"/>
+      <c r="E70" s="89" t="n"/>
+      <c r="F70" s="90" t="n"/>
+      <c r="G70" s="89" t="n"/>
+      <c r="H70" s="90" t="n"/>
+      <c r="I70" s="89" t="n"/>
+      <c r="J70" s="90" t="n"/>
+      <c r="K70" s="89" t="n"/>
+      <c r="L70" s="90" t="n"/>
+      <c r="M70" s="89" t="n"/>
+      <c r="N70" s="90" t="n"/>
+      <c r="O70" s="89" t="n"/>
+      <c r="P70" s="90" t="n"/>
       <c r="Q70" s="3" t="n"/>
     </row>
     <row r="71" ht="34.5" customHeight="1">
@@ -4664,82 +3346,20 @@
           <t>Sprints</t>
         </is>
       </c>
-      <c r="C71" s="93" t="inlineStr">
-        <is>
-          <t>Outdoor Track
-	09:00-11:00</t>
-        </is>
-      </c>
-      <c r="D71" s="94" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="E71" s="93" t="inlineStr">
-        <is>
-          <t>Gym B
-	09:00-11:00</t>
-        </is>
-      </c>
-      <c r="F71" s="94" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="G71" s="93" t="inlineStr">
-        <is>
-          <t>Outdoor Track
-	09:00-11:00</t>
-        </is>
-      </c>
-      <c r="H71" s="94" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I71" s="93" t="inlineStr">
-        <is>
-          <t>Outdoor Track
-	09:00-11:00</t>
-        </is>
-      </c>
-      <c r="J71" s="94" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="K71" s="93" t="inlineStr">
-        <is>
-          <t>Gym B
-	09:00-11:00</t>
-        </is>
-      </c>
-      <c r="L71" s="94" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="M71" s="93" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="N71" s="94" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="O71" s="93" t="inlineStr">
-        <is>
-          <t>Outdoor Track
-	09:00-11:00</t>
-        </is>
-      </c>
-      <c r="P71" s="94" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+      <c r="C71" s="28" t="n"/>
+      <c r="D71" s="21" t="n"/>
+      <c r="E71" s="28" t="n"/>
+      <c r="F71" s="21" t="n"/>
+      <c r="G71" s="28" t="n"/>
+      <c r="H71" s="21" t="n"/>
+      <c r="I71" s="28" t="n"/>
+      <c r="J71" s="21" t="n"/>
+      <c r="K71" s="28" t="n"/>
+      <c r="L71" s="21" t="n"/>
+      <c r="M71" s="28" t="n"/>
+      <c r="N71" s="21" t="n"/>
+      <c r="O71" s="28" t="n"/>
+      <c r="P71" s="21" t="n"/>
       <c r="Q71" s="3" t="n"/>
     </row>
     <row r="72" ht="34.5" customHeight="1">
@@ -4749,20 +3369,20 @@
           <t>Kurt Kourto</t>
         </is>
       </c>
-      <c r="C72" s="91" t="n"/>
-      <c r="D72" s="92" t="n"/>
-      <c r="E72" s="91" t="n"/>
-      <c r="F72" s="92" t="n"/>
-      <c r="G72" s="91" t="n"/>
-      <c r="H72" s="92" t="n"/>
-      <c r="I72" s="91" t="n"/>
-      <c r="J72" s="92" t="n"/>
-      <c r="K72" s="91" t="n"/>
-      <c r="L72" s="92" t="n"/>
-      <c r="M72" s="91" t="n"/>
-      <c r="N72" s="92" t="n"/>
-      <c r="O72" s="91" t="n"/>
-      <c r="P72" s="92" t="n"/>
+      <c r="C72" s="89" t="n"/>
+      <c r="D72" s="90" t="n"/>
+      <c r="E72" s="89" t="n"/>
+      <c r="F72" s="90" t="n"/>
+      <c r="G72" s="89" t="n"/>
+      <c r="H72" s="90" t="n"/>
+      <c r="I72" s="89" t="n"/>
+      <c r="J72" s="90" t="n"/>
+      <c r="K72" s="89" t="n"/>
+      <c r="L72" s="90" t="n"/>
+      <c r="M72" s="89" t="n"/>
+      <c r="N72" s="90" t="n"/>
+      <c r="O72" s="89" t="n"/>
+      <c r="P72" s="90" t="n"/>
       <c r="Q72" s="3" t="n"/>
     </row>
     <row r="73" ht="34.5" customHeight="1">
@@ -4772,82 +3392,20 @@
           <t>Jumps</t>
         </is>
       </c>
-      <c r="C73" s="95" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="D73" s="96" t="inlineStr">
-        <is>
-          <t>Outdoor Track
-	16:00-18:00</t>
-        </is>
-      </c>
-      <c r="E73" s="95" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="F73" s="96" t="inlineStr">
-        <is>
-          <t>Gym A
-	16:00-18:00</t>
-        </is>
-      </c>
-      <c r="G73" s="95" t="inlineStr">
-        <is>
-          <t>Outdoor Track
-	09:00-11:00</t>
-        </is>
-      </c>
-      <c r="H73" s="96" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="I73" s="95" t="inlineStr">
-        <is>
-          <t>Indoor Track
-	09:00-11:00</t>
-        </is>
-      </c>
-      <c r="J73" s="96" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="K73" s="95" t="inlineStr">
-        <is>
-          <t>Gym A
-	09:00-11:00</t>
-        </is>
-      </c>
-      <c r="L73" s="96" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="M73" s="95" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="N73" s="96" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="O73" s="95" t="inlineStr">
-        <is>
-          <t>Indoor Track
-	09:00-11:00</t>
-        </is>
-      </c>
-      <c r="P73" s="96" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
+      <c r="C73" s="91" t="n"/>
+      <c r="D73" s="92" t="n"/>
+      <c r="E73" s="91" t="n"/>
+      <c r="F73" s="92" t="n"/>
+      <c r="G73" s="91" t="n"/>
+      <c r="H73" s="92" t="n"/>
+      <c r="I73" s="91" t="n"/>
+      <c r="J73" s="92" t="n"/>
+      <c r="K73" s="91" t="n"/>
+      <c r="L73" s="92" t="n"/>
+      <c r="M73" s="91" t="n"/>
+      <c r="N73" s="92" t="n"/>
+      <c r="O73" s="91" t="n"/>
+      <c r="P73" s="92" t="n"/>
       <c r="Q73" s="3" t="n"/>
     </row>
     <row r="74" ht="34.5" customHeight="1">
@@ -4857,20 +3415,20 @@
           <t>Linus Thornblad</t>
         </is>
       </c>
-      <c r="C74" s="91" t="n"/>
-      <c r="D74" s="92" t="n"/>
-      <c r="E74" s="91" t="n"/>
-      <c r="F74" s="92" t="n"/>
-      <c r="G74" s="91" t="n"/>
-      <c r="H74" s="92" t="n"/>
-      <c r="I74" s="91" t="n"/>
-      <c r="J74" s="92" t="n"/>
-      <c r="K74" s="91" t="n"/>
-      <c r="L74" s="92" t="n"/>
-      <c r="M74" s="91" t="n"/>
-      <c r="N74" s="92" t="n"/>
-      <c r="O74" s="91" t="n"/>
-      <c r="P74" s="92" t="n"/>
+      <c r="C74" s="89" t="n"/>
+      <c r="D74" s="90" t="n"/>
+      <c r="E74" s="89" t="n"/>
+      <c r="F74" s="90" t="n"/>
+      <c r="G74" s="89" t="n"/>
+      <c r="H74" s="90" t="n"/>
+      <c r="I74" s="89" t="n"/>
+      <c r="J74" s="90" t="n"/>
+      <c r="K74" s="89" t="n"/>
+      <c r="L74" s="90" t="n"/>
+      <c r="M74" s="89" t="n"/>
+      <c r="N74" s="90" t="n"/>
+      <c r="O74" s="89" t="n"/>
+      <c r="P74" s="90" t="n"/>
       <c r="Q74" s="3" t="n"/>
     </row>
     <row r="75" ht="47.25" customHeight="1">
@@ -4903,20 +3461,20 @@
           <t>Kamal</t>
         </is>
       </c>
-      <c r="C76" s="91" t="n"/>
-      <c r="D76" s="92" t="n"/>
-      <c r="E76" s="91" t="n"/>
-      <c r="F76" s="92" t="n"/>
-      <c r="G76" s="91" t="n"/>
-      <c r="H76" s="92" t="n"/>
-      <c r="I76" s="91" t="n"/>
-      <c r="J76" s="92" t="n"/>
-      <c r="K76" s="91" t="n"/>
-      <c r="L76" s="92" t="n"/>
-      <c r="M76" s="91" t="n"/>
-      <c r="N76" s="92" t="n"/>
-      <c r="O76" s="91" t="n"/>
-      <c r="P76" s="92" t="n"/>
+      <c r="C76" s="89" t="n"/>
+      <c r="D76" s="90" t="n"/>
+      <c r="E76" s="89" t="n"/>
+      <c r="F76" s="90" t="n"/>
+      <c r="G76" s="89" t="n"/>
+      <c r="H76" s="90" t="n"/>
+      <c r="I76" s="89" t="n"/>
+      <c r="J76" s="90" t="n"/>
+      <c r="K76" s="89" t="n"/>
+      <c r="L76" s="90" t="n"/>
+      <c r="M76" s="89" t="n"/>
+      <c r="N76" s="90" t="n"/>
+      <c r="O76" s="89" t="n"/>
+      <c r="P76" s="90" t="n"/>
       <c r="Q76" s="3" t="n"/>
     </row>
     <row r="77" ht="34.5" customHeight="1">
@@ -4926,20 +3484,20 @@
           <t>Throws 2</t>
         </is>
       </c>
-      <c r="C77" s="97" t="n"/>
-      <c r="D77" s="98" t="n"/>
-      <c r="E77" s="97" t="n"/>
-      <c r="F77" s="98" t="n"/>
-      <c r="G77" s="97" t="n"/>
-      <c r="H77" s="98" t="n"/>
-      <c r="I77" s="97" t="n"/>
-      <c r="J77" s="98" t="n"/>
-      <c r="K77" s="97" t="n"/>
-      <c r="L77" s="98" t="n"/>
-      <c r="M77" s="97" t="n"/>
-      <c r="N77" s="98" t="n"/>
-      <c r="O77" s="97" t="n"/>
-      <c r="P77" s="98" t="n"/>
+      <c r="C77" s="91" t="n"/>
+      <c r="D77" s="92" t="n"/>
+      <c r="E77" s="91" t="n"/>
+      <c r="F77" s="92" t="n"/>
+      <c r="G77" s="91" t="n"/>
+      <c r="H77" s="92" t="n"/>
+      <c r="I77" s="91" t="n"/>
+      <c r="J77" s="92" t="n"/>
+      <c r="K77" s="91" t="n"/>
+      <c r="L77" s="92" t="n"/>
+      <c r="M77" s="91" t="n"/>
+      <c r="N77" s="92" t="n"/>
+      <c r="O77" s="91" t="n"/>
+      <c r="P77" s="92" t="n"/>
       <c r="Q77" s="3" t="n"/>
     </row>
     <row r="78" ht="34.5" customHeight="1">
@@ -4949,20 +3507,20 @@
           <t>Kristof</t>
         </is>
       </c>
-      <c r="C78" s="91" t="n"/>
-      <c r="D78" s="92" t="n"/>
-      <c r="E78" s="91" t="n"/>
-      <c r="F78" s="92" t="n"/>
-      <c r="G78" s="91" t="n"/>
-      <c r="H78" s="92" t="n"/>
-      <c r="I78" s="91" t="n"/>
-      <c r="J78" s="92" t="n"/>
-      <c r="K78" s="91" t="n"/>
-      <c r="L78" s="92" t="n"/>
-      <c r="M78" s="91" t="n"/>
-      <c r="N78" s="92" t="n"/>
-      <c r="O78" s="91" t="n"/>
-      <c r="P78" s="92" t="n"/>
+      <c r="C78" s="89" t="n"/>
+      <c r="D78" s="90" t="n"/>
+      <c r="E78" s="89" t="n"/>
+      <c r="F78" s="90" t="n"/>
+      <c r="G78" s="89" t="n"/>
+      <c r="H78" s="90" t="n"/>
+      <c r="I78" s="89" t="n"/>
+      <c r="J78" s="90" t="n"/>
+      <c r="K78" s="89" t="n"/>
+      <c r="L78" s="90" t="n"/>
+      <c r="M78" s="89" t="n"/>
+      <c r="N78" s="90" t="n"/>
+      <c r="O78" s="89" t="n"/>
+      <c r="P78" s="90" t="n"/>
       <c r="Q78" s="3" t="n"/>
     </row>
     <row r="79" ht="34.5" customHeight="1">
@@ -4995,58 +3553,58 @@
           <t>Pawel</t>
         </is>
       </c>
-      <c r="C80" s="91" t="n"/>
-      <c r="D80" s="92" t="n"/>
-      <c r="E80" s="91" t="n"/>
-      <c r="F80" s="92" t="n"/>
-      <c r="G80" s="91" t="n"/>
-      <c r="H80" s="92" t="n"/>
-      <c r="I80" s="91" t="n"/>
-      <c r="J80" s="92" t="n"/>
-      <c r="K80" s="91" t="n"/>
-      <c r="L80" s="92" t="n"/>
-      <c r="M80" s="91" t="n"/>
-      <c r="N80" s="92" t="n"/>
-      <c r="O80" s="91" t="n"/>
-      <c r="P80" s="92" t="n"/>
+      <c r="C80" s="89" t="n"/>
+      <c r="D80" s="90" t="n"/>
+      <c r="E80" s="89" t="n"/>
+      <c r="F80" s="90" t="n"/>
+      <c r="G80" s="89" t="n"/>
+      <c r="H80" s="90" t="n"/>
+      <c r="I80" s="89" t="n"/>
+      <c r="J80" s="90" t="n"/>
+      <c r="K80" s="89" t="n"/>
+      <c r="L80" s="90" t="n"/>
+      <c r="M80" s="89" t="n"/>
+      <c r="N80" s="90" t="n"/>
+      <c r="O80" s="89" t="n"/>
+      <c r="P80" s="90" t="n"/>
       <c r="Q80" s="3" t="n"/>
     </row>
     <row r="81" ht="34.5" customHeight="1">
       <c r="A81" s="3" t="n"/>
       <c r="B81" s="14" t="n"/>
-      <c r="C81" s="97" t="n"/>
-      <c r="D81" s="98" t="n"/>
-      <c r="E81" s="97" t="n"/>
-      <c r="F81" s="98" t="n"/>
-      <c r="G81" s="97" t="n"/>
-      <c r="H81" s="98" t="n"/>
-      <c r="I81" s="97" t="n"/>
-      <c r="J81" s="98" t="n"/>
-      <c r="K81" s="97" t="n"/>
-      <c r="L81" s="98" t="n"/>
-      <c r="M81" s="97" t="n"/>
-      <c r="N81" s="98" t="n"/>
-      <c r="O81" s="97" t="n"/>
-      <c r="P81" s="98" t="n"/>
+      <c r="C81" s="91" t="n"/>
+      <c r="D81" s="92" t="n"/>
+      <c r="E81" s="91" t="n"/>
+      <c r="F81" s="92" t="n"/>
+      <c r="G81" s="91" t="n"/>
+      <c r="H81" s="92" t="n"/>
+      <c r="I81" s="91" t="n"/>
+      <c r="J81" s="92" t="n"/>
+      <c r="K81" s="91" t="n"/>
+      <c r="L81" s="92" t="n"/>
+      <c r="M81" s="91" t="n"/>
+      <c r="N81" s="92" t="n"/>
+      <c r="O81" s="91" t="n"/>
+      <c r="P81" s="92" t="n"/>
       <c r="Q81" s="3" t="n"/>
     </row>
     <row r="82" ht="34.5" customHeight="1">
       <c r="A82" s="3" t="n"/>
       <c r="B82" s="11" t="n"/>
-      <c r="C82" s="91" t="n"/>
-      <c r="D82" s="92" t="n"/>
-      <c r="E82" s="91" t="n"/>
-      <c r="F82" s="92" t="n"/>
-      <c r="G82" s="91" t="n"/>
-      <c r="H82" s="92" t="n"/>
-      <c r="I82" s="91" t="n"/>
-      <c r="J82" s="92" t="n"/>
-      <c r="K82" s="91" t="n"/>
-      <c r="L82" s="92" t="n"/>
-      <c r="M82" s="91" t="n"/>
-      <c r="N82" s="92" t="n"/>
-      <c r="O82" s="91" t="n"/>
-      <c r="P82" s="92" t="n"/>
+      <c r="C82" s="89" t="n"/>
+      <c r="D82" s="90" t="n"/>
+      <c r="E82" s="89" t="n"/>
+      <c r="F82" s="90" t="n"/>
+      <c r="G82" s="89" t="n"/>
+      <c r="H82" s="90" t="n"/>
+      <c r="I82" s="89" t="n"/>
+      <c r="J82" s="90" t="n"/>
+      <c r="K82" s="89" t="n"/>
+      <c r="L82" s="90" t="n"/>
+      <c r="M82" s="89" t="n"/>
+      <c r="N82" s="90" t="n"/>
+      <c r="O82" s="89" t="n"/>
+      <c r="P82" s="90" t="n"/>
       <c r="Q82" s="3" t="n"/>
     </row>
     <row r="83" ht="34.5" customHeight="1">
@@ -5071,58 +3629,58 @@
     <row r="84" ht="34.5" customHeight="1">
       <c r="A84" s="3" t="n"/>
       <c r="B84" s="13" t="n"/>
-      <c r="C84" s="91" t="n"/>
-      <c r="D84" s="92" t="n"/>
-      <c r="E84" s="91" t="n"/>
-      <c r="F84" s="92" t="n"/>
-      <c r="G84" s="91" t="n"/>
-      <c r="H84" s="92" t="n"/>
-      <c r="I84" s="91" t="n"/>
-      <c r="J84" s="92" t="n"/>
-      <c r="K84" s="91" t="n"/>
-      <c r="L84" s="92" t="n"/>
-      <c r="M84" s="91" t="n"/>
-      <c r="N84" s="92" t="n"/>
-      <c r="O84" s="91" t="n"/>
-      <c r="P84" s="92" t="n"/>
+      <c r="C84" s="89" t="n"/>
+      <c r="D84" s="90" t="n"/>
+      <c r="E84" s="89" t="n"/>
+      <c r="F84" s="90" t="n"/>
+      <c r="G84" s="89" t="n"/>
+      <c r="H84" s="90" t="n"/>
+      <c r="I84" s="89" t="n"/>
+      <c r="J84" s="90" t="n"/>
+      <c r="K84" s="89" t="n"/>
+      <c r="L84" s="90" t="n"/>
+      <c r="M84" s="89" t="n"/>
+      <c r="N84" s="90" t="n"/>
+      <c r="O84" s="89" t="n"/>
+      <c r="P84" s="90" t="n"/>
       <c r="Q84" s="3" t="n"/>
     </row>
     <row r="85" ht="34.5" customHeight="1">
       <c r="A85" s="3" t="n"/>
       <c r="B85" s="14" t="n"/>
-      <c r="C85" s="97" t="n"/>
-      <c r="D85" s="98" t="n"/>
-      <c r="E85" s="97" t="n"/>
-      <c r="F85" s="98" t="n"/>
-      <c r="G85" s="97" t="n"/>
-      <c r="H85" s="98" t="n"/>
-      <c r="I85" s="97" t="n"/>
-      <c r="J85" s="98" t="n"/>
-      <c r="K85" s="97" t="n"/>
-      <c r="L85" s="98" t="n"/>
-      <c r="M85" s="97" t="n"/>
-      <c r="N85" s="98" t="n"/>
-      <c r="O85" s="97" t="n"/>
-      <c r="P85" s="98" t="n"/>
+      <c r="C85" s="91" t="n"/>
+      <c r="D85" s="92" t="n"/>
+      <c r="E85" s="91" t="n"/>
+      <c r="F85" s="92" t="n"/>
+      <c r="G85" s="91" t="n"/>
+      <c r="H85" s="92" t="n"/>
+      <c r="I85" s="91" t="n"/>
+      <c r="J85" s="92" t="n"/>
+      <c r="K85" s="91" t="n"/>
+      <c r="L85" s="92" t="n"/>
+      <c r="M85" s="91" t="n"/>
+      <c r="N85" s="92" t="n"/>
+      <c r="O85" s="91" t="n"/>
+      <c r="P85" s="92" t="n"/>
       <c r="Q85" s="3" t="n"/>
     </row>
     <row r="86" ht="34.5" customHeight="1">
       <c r="A86" s="3" t="n"/>
       <c r="B86" s="11" t="n"/>
-      <c r="C86" s="91" t="n"/>
-      <c r="D86" s="92" t="n"/>
-      <c r="E86" s="91" t="n"/>
-      <c r="F86" s="92" t="n"/>
-      <c r="G86" s="91" t="n"/>
-      <c r="H86" s="92" t="n"/>
-      <c r="I86" s="91" t="n"/>
-      <c r="J86" s="92" t="n"/>
-      <c r="K86" s="91" t="n"/>
-      <c r="L86" s="92" t="n"/>
-      <c r="M86" s="91" t="n"/>
-      <c r="N86" s="92" t="n"/>
-      <c r="O86" s="91" t="n"/>
-      <c r="P86" s="92" t="n"/>
+      <c r="C86" s="89" t="n"/>
+      <c r="D86" s="90" t="n"/>
+      <c r="E86" s="89" t="n"/>
+      <c r="F86" s="90" t="n"/>
+      <c r="G86" s="89" t="n"/>
+      <c r="H86" s="90" t="n"/>
+      <c r="I86" s="89" t="n"/>
+      <c r="J86" s="90" t="n"/>
+      <c r="K86" s="89" t="n"/>
+      <c r="L86" s="90" t="n"/>
+      <c r="M86" s="89" t="n"/>
+      <c r="N86" s="90" t="n"/>
+      <c r="O86" s="89" t="n"/>
+      <c r="P86" s="90" t="n"/>
       <c r="Q86" s="3" t="n"/>
     </row>
     <row r="87" ht="34.5" customHeight="1">
@@ -5147,20 +3705,20 @@
     <row r="88" ht="34.5" customHeight="1" thickBot="1">
       <c r="A88" s="3" t="n"/>
       <c r="B88" s="13" t="n"/>
-      <c r="C88" s="99" t="n"/>
-      <c r="D88" s="100" t="n"/>
-      <c r="E88" s="99" t="n"/>
-      <c r="F88" s="100" t="n"/>
-      <c r="G88" s="99" t="n"/>
-      <c r="H88" s="100" t="n"/>
-      <c r="I88" s="99" t="n"/>
-      <c r="J88" s="100" t="n"/>
-      <c r="K88" s="99" t="n"/>
-      <c r="L88" s="100" t="n"/>
-      <c r="M88" s="99" t="n"/>
-      <c r="N88" s="100" t="n"/>
-      <c r="O88" s="99" t="n"/>
-      <c r="P88" s="100" t="n"/>
+      <c r="C88" s="93" t="n"/>
+      <c r="D88" s="94" t="n"/>
+      <c r="E88" s="93" t="n"/>
+      <c r="F88" s="94" t="n"/>
+      <c r="G88" s="93" t="n"/>
+      <c r="H88" s="94" t="n"/>
+      <c r="I88" s="93" t="n"/>
+      <c r="J88" s="94" t="n"/>
+      <c r="K88" s="93" t="n"/>
+      <c r="L88" s="94" t="n"/>
+      <c r="M88" s="93" t="n"/>
+      <c r="N88" s="94" t="n"/>
+      <c r="O88" s="93" t="n"/>
+      <c r="P88" s="94" t="n"/>
       <c r="Q88" s="3" t="n"/>
     </row>
     <row r="89" ht="5.25" customHeight="1">
